--- a/raw_data/20200818_saline/20200818_Sensor3_Test_80.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_80.xlsx
@@ -1,1232 +1,1648 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AEEB8C-09EE-4B3C-A003-D2E00D06D75A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>71659.474157</v>
+        <v>71659.474157000004</v>
       </c>
       <c r="B2" s="1">
-        <v>19.905409</v>
+        <v>19.905408999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>1149.240000</v>
+        <v>1149.24</v>
       </c>
       <c r="D2" s="1">
-        <v>-251.655000</v>
+        <v>-251.655</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>71670.163933</v>
+        <v>71670.163933000003</v>
       </c>
       <c r="G2" s="1">
         <v>19.908379</v>
       </c>
       <c r="H2" s="1">
-        <v>1169.760000</v>
+        <v>1169.76</v>
       </c>
       <c r="I2" s="1">
-        <v>-212.085000</v>
+        <v>-212.08500000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>71680.440544</v>
+        <v>71680.440543999997</v>
       </c>
       <c r="L2" s="1">
-        <v>19.911233</v>
+        <v>19.911232999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>1197.290000</v>
+        <v>1197.29</v>
       </c>
       <c r="N2" s="1">
-        <v>-148.848000</v>
+        <v>-148.84800000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>71690.656643</v>
+        <v>71690.656642999995</v>
       </c>
       <c r="Q2" s="1">
         <v>19.914071</v>
       </c>
       <c r="R2" s="1">
-        <v>1205.220000</v>
+        <v>1205.22</v>
       </c>
       <c r="S2" s="1">
-        <v>-127.358000</v>
+        <v>-127.358</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>71700.397573</v>
+        <v>71700.397572999995</v>
       </c>
       <c r="V2" s="1">
         <v>19.916777</v>
       </c>
       <c r="W2" s="1">
-        <v>1212.890000</v>
+        <v>1212.8900000000001</v>
       </c>
       <c r="X2" s="1">
-        <v>-107.321000</v>
+        <v>-107.321</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>71710.571018</v>
+        <v>71710.571018000002</v>
       </c>
       <c r="AA2" s="1">
-        <v>19.919603</v>
+        <v>19.919602999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>1220.840000</v>
+        <v>1220.8399999999999</v>
       </c>
       <c r="AC2" s="1">
-        <v>-90.798400</v>
+        <v>-90.798400000000001</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>71720.849114</v>
+        <v>71720.849113999997</v>
       </c>
       <c r="AF2" s="1">
-        <v>19.922458</v>
+        <v>19.922457999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>1225.750000</v>
+        <v>1225.75</v>
       </c>
       <c r="AH2" s="1">
-        <v>-86.516400</v>
+        <v>-86.516400000000004</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>71731.327101</v>
+        <v>71731.327101000003</v>
       </c>
       <c r="AK2" s="1">
         <v>19.925369</v>
       </c>
       <c r="AL2" s="1">
-        <v>1233.110000</v>
+        <v>1233.1099999999999</v>
       </c>
       <c r="AM2" s="1">
-        <v>-89.818100</v>
+        <v>-89.818100000000001</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>71741.904783</v>
+        <v>71741.904783000005</v>
       </c>
       <c r="AP2" s="1">
         <v>19.928307</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1241.240000</v>
+        <v>1241.24</v>
       </c>
       <c r="AR2" s="1">
-        <v>-101.743000</v>
+        <v>-101.74299999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>71752.922416</v>
+        <v>71752.922416000001</v>
       </c>
       <c r="AU2" s="1">
-        <v>19.931367</v>
+        <v>19.931367000000002</v>
       </c>
       <c r="AV2" s="1">
-        <v>1251.280000</v>
+        <v>1251.28</v>
       </c>
       <c r="AW2" s="1">
-        <v>-121.026000</v>
+        <v>-121.026</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>71764.009490</v>
+        <v>71764.009489999997</v>
       </c>
       <c r="AZ2" s="1">
-        <v>19.934447</v>
+        <v>19.934446999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1259.820000</v>
+        <v>1259.82</v>
       </c>
       <c r="BB2" s="1">
-        <v>-138.439000</v>
+        <v>-138.43899999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>71774.958675</v>
+        <v>71774.958675000002</v>
       </c>
       <c r="BE2" s="1">
-        <v>19.937489</v>
+        <v>19.937488999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1300.240000</v>
+        <v>1300.24</v>
       </c>
       <c r="BG2" s="1">
-        <v>-220.168000</v>
+        <v>-220.16800000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>71785.991684</v>
+        <v>71785.991683999993</v>
       </c>
       <c r="BJ2" s="1">
-        <v>19.940553</v>
+        <v>19.940553000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1370.350000</v>
+        <v>1370.35</v>
       </c>
       <c r="BL2" s="1">
-        <v>-355.833000</v>
+        <v>-355.83300000000003</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>71797.066854</v>
+        <v>71797.066854000004</v>
       </c>
       <c r="BO2" s="1">
-        <v>19.943630</v>
+        <v>19.943629999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1485.440000</v>
+        <v>1485.44</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-576.020000</v>
+        <v>-576.02</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>71807.704584</v>
+        <v>71807.704584000006</v>
       </c>
       <c r="BT2" s="1">
-        <v>19.946585</v>
+        <v>19.946584999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1618.460000</v>
+        <v>1618.46</v>
       </c>
       <c r="BV2" s="1">
-        <v>-824.053000</v>
+        <v>-824.053</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>71818.824894</v>
+        <v>71818.824894000005</v>
       </c>
       <c r="BY2" s="1">
-        <v>19.949674</v>
+        <v>19.949674000000002</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1770.690000</v>
+        <v>1770.69</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1092.210000</v>
+        <v>-1092.21</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>71830.157450</v>
+        <v>71830.157449999999</v>
       </c>
       <c r="CD2" s="1">
-        <v>19.952822</v>
+        <v>19.952822000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>2187.420000</v>
+        <v>2187.42</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1738.920000</v>
+        <v>-1738.92</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>71660.162107</v>
+        <v>71660.162106999996</v>
       </c>
       <c r="B3" s="1">
-        <v>19.905601</v>
+        <v>19.905601000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>1149.050000</v>
+        <v>1149.05</v>
       </c>
       <c r="D3" s="1">
-        <v>-251.339000</v>
+        <v>-251.339</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>71670.576109</v>
+        <v>71670.576109000001</v>
       </c>
       <c r="G3" s="1">
         <v>19.908493</v>
       </c>
       <c r="H3" s="1">
-        <v>1169.860000</v>
+        <v>1169.8599999999999</v>
       </c>
       <c r="I3" s="1">
-        <v>-212.448000</v>
+        <v>-212.44800000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>71680.787247</v>
       </c>
       <c r="L3" s="1">
-        <v>19.911330</v>
+        <v>19.91133</v>
       </c>
       <c r="M3" s="1">
-        <v>1197.320000</v>
+        <v>1197.32</v>
       </c>
       <c r="N3" s="1">
-        <v>-148.832000</v>
+        <v>-148.83199999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>71691.012771</v>
+        <v>71691.012770999994</v>
       </c>
       <c r="Q3" s="1">
-        <v>19.914170</v>
+        <v>19.914169999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>1205.330000</v>
+        <v>1205.33</v>
       </c>
       <c r="S3" s="1">
-        <v>-127.399000</v>
+        <v>-127.399</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>71700.778998</v>
+        <v>71700.778997999994</v>
       </c>
       <c r="V3" s="1">
-        <v>19.916883</v>
+        <v>19.916882999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>1212.930000</v>
+        <v>1212.93</v>
       </c>
       <c r="X3" s="1">
-        <v>-107.258000</v>
+        <v>-107.258</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>71711.082392</v>
+        <v>71711.082391999997</v>
       </c>
       <c r="AA3" s="1">
-        <v>19.919745</v>
+        <v>19.919744999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>1220.680000</v>
+        <v>1220.68</v>
       </c>
       <c r="AC3" s="1">
-        <v>-90.834500</v>
+        <v>-90.834500000000006</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>71721.279146</v>
+        <v>71721.279146000001</v>
       </c>
       <c r="AF3" s="1">
-        <v>19.922578</v>
+        <v>19.922578000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>1225.810000</v>
+        <v>1225.81</v>
       </c>
       <c r="AH3" s="1">
-        <v>-86.536100</v>
+        <v>-86.536100000000005</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>71731.737292</v>
+        <v>71731.737292000005</v>
       </c>
       <c r="AK3" s="1">
         <v>19.925483</v>
       </c>
       <c r="AL3" s="1">
-        <v>1233.130000</v>
+        <v>1233.1300000000001</v>
       </c>
       <c r="AM3" s="1">
-        <v>-89.847100</v>
+        <v>-89.847099999999998</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>71742.333860</v>
+        <v>71742.333859999999</v>
       </c>
       <c r="AP3" s="1">
-        <v>19.928426</v>
+        <v>19.928426000000002</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1241.230000</v>
+        <v>1241.23</v>
       </c>
       <c r="AR3" s="1">
-        <v>-101.734000</v>
+        <v>-101.73399999999999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>71753.287969</v>
+        <v>71753.287968999997</v>
       </c>
       <c r="AU3" s="1">
         <v>19.931469</v>
       </c>
       <c r="AV3" s="1">
-        <v>1251.290000</v>
+        <v>1251.29</v>
       </c>
       <c r="AW3" s="1">
-        <v>-121.031000</v>
+        <v>-121.03100000000001</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>71764.366611</v>
+        <v>71764.366611000005</v>
       </c>
       <c r="AZ3" s="1">
-        <v>19.934546</v>
+        <v>19.934546000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1259.800000</v>
+        <v>1259.8</v>
       </c>
       <c r="BB3" s="1">
-        <v>-138.482000</v>
+        <v>-138.482</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>71775.344563</v>
+        <v>71775.344563000006</v>
       </c>
       <c r="BE3" s="1">
-        <v>19.937596</v>
+        <v>19.937595999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1300.240000</v>
+        <v>1300.24</v>
       </c>
       <c r="BG3" s="1">
-        <v>-220.160000</v>
+        <v>-220.16</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>71786.407828</v>
+        <v>71786.407827999996</v>
       </c>
       <c r="BJ3" s="1">
         <v>19.940669</v>
       </c>
       <c r="BK3" s="1">
-        <v>1370.340000</v>
+        <v>1370.34</v>
       </c>
       <c r="BL3" s="1">
-        <v>-355.867000</v>
+        <v>-355.86700000000002</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>71797.472581</v>
+        <v>71797.472580999995</v>
       </c>
       <c r="BO3" s="1">
         <v>19.943742</v>
       </c>
       <c r="BP3" s="1">
-        <v>1485.520000</v>
+        <v>1485.52</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-576.086000</v>
+        <v>-576.08600000000001</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>71808.162359</v>
+        <v>71808.162358999994</v>
       </c>
       <c r="BT3" s="1">
-        <v>19.946712</v>
+        <v>19.946712000000002</v>
       </c>
       <c r="BU3" s="1">
-        <v>1618.560000</v>
+        <v>1618.56</v>
       </c>
       <c r="BV3" s="1">
-        <v>-824.063000</v>
+        <v>-824.06299999999999</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>71819.291098</v>
+        <v>71819.291098000002</v>
       </c>
       <c r="BY3" s="1">
-        <v>19.949803</v>
+        <v>19.949802999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1770.560000</v>
+        <v>1770.56</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1092.180000</v>
+        <v>-1092.18</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>71831.060170</v>
+        <v>71831.060169999997</v>
       </c>
       <c r="CD3" s="1">
-        <v>19.953072</v>
+        <v>19.953071999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>2188.160000</v>
+        <v>2188.16</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1740.920000</v>
+        <v>-1740.92</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>71660.520218</v>
+        <v>71660.520218000005</v>
       </c>
       <c r="B4" s="1">
-        <v>19.905700</v>
+        <v>19.9057</v>
       </c>
       <c r="C4" s="1">
-        <v>1149.160000</v>
+        <v>1149.1600000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>-251.533000</v>
+        <v>-251.53299999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>71670.918845</v>
+        <v>71670.918844999993</v>
       </c>
       <c r="G4" s="1">
-        <v>19.908589</v>
+        <v>19.908588999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>1169.750000</v>
+        <v>1169.75</v>
       </c>
       <c r="I4" s="1">
-        <v>-211.254000</v>
+        <v>-211.25399999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>71681.131969</v>
+        <v>71681.131968999995</v>
       </c>
       <c r="L4" s="1">
-        <v>19.911426</v>
+        <v>19.911425999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>1197.030000</v>
+        <v>1197.03</v>
       </c>
       <c r="N4" s="1">
-        <v>-148.450000</v>
+        <v>-148.44999999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>71691.360001</v>
+        <v>71691.360000999994</v>
       </c>
       <c r="Q4" s="1">
-        <v>19.914267</v>
+        <v>19.914266999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>1205.300000</v>
+        <v>1205.3</v>
       </c>
       <c r="S4" s="1">
-        <v>-127.437000</v>
+        <v>-127.437</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>71701.218453</v>
+        <v>71701.218452999994</v>
       </c>
       <c r="V4" s="1">
         <v>19.917005</v>
       </c>
       <c r="W4" s="1">
-        <v>1212.990000</v>
+        <v>1212.99</v>
       </c>
       <c r="X4" s="1">
-        <v>-107.371000</v>
+        <v>-107.371</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>71711.339335</v>
+        <v>71711.339334999997</v>
       </c>
       <c r="AA4" s="1">
-        <v>19.919816</v>
+        <v>19.919816000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>1220.790000</v>
+        <v>1220.79</v>
       </c>
       <c r="AC4" s="1">
-        <v>-90.759500</v>
+        <v>-90.759500000000003</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>71721.608491</v>
+        <v>71721.608491000006</v>
       </c>
       <c r="AF4" s="1">
-        <v>19.922669</v>
+        <v>19.922668999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>1225.810000</v>
+        <v>1225.81</v>
       </c>
       <c r="AH4" s="1">
-        <v>-86.377100</v>
+        <v>-86.377099999999999</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>71732.082508</v>
+        <v>71732.082508000007</v>
       </c>
       <c r="AK4" s="1">
-        <v>19.925578</v>
+        <v>19.925578000000002</v>
       </c>
       <c r="AL4" s="1">
-        <v>1233.120000</v>
+        <v>1233.1199999999999</v>
       </c>
       <c r="AM4" s="1">
-        <v>-89.845500</v>
+        <v>-89.845500000000001</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>71742.692926</v>
+        <v>71742.692926000003</v>
       </c>
       <c r="AP4" s="1">
-        <v>19.928526</v>
+        <v>19.928526000000002</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1241.220000</v>
+        <v>1241.22</v>
       </c>
       <c r="AR4" s="1">
-        <v>-101.734000</v>
+        <v>-101.73399999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>71753.653520</v>
+        <v>71753.653520000007</v>
       </c>
       <c r="AU4" s="1">
-        <v>19.931570</v>
+        <v>19.931570000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>1251.300000</v>
+        <v>1251.3</v>
       </c>
       <c r="AW4" s="1">
-        <v>-121.005000</v>
+        <v>-121.005</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>71765.089778</v>
+        <v>71765.089777999994</v>
       </c>
       <c r="AZ4" s="1">
-        <v>19.934747</v>
+        <v>19.934747000000002</v>
       </c>
       <c r="BA4" s="1">
-        <v>1259.800000</v>
+        <v>1259.8</v>
       </c>
       <c r="BB4" s="1">
-        <v>-138.461000</v>
+        <v>-138.46100000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>71776.054867</v>
+        <v>71776.054866999999</v>
       </c>
       <c r="BE4" s="1">
-        <v>19.937793</v>
+        <v>19.937792999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1300.220000</v>
+        <v>1300.22</v>
       </c>
       <c r="BG4" s="1">
-        <v>-220.154000</v>
+        <v>-220.154</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>71786.781812</v>
+        <v>71786.781812000001</v>
       </c>
       <c r="BJ4" s="1">
         <v>19.940773</v>
       </c>
       <c r="BK4" s="1">
-        <v>1370.370000</v>
+        <v>1370.37</v>
       </c>
       <c r="BL4" s="1">
-        <v>-355.831000</v>
+        <v>-355.83100000000002</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>71797.892693</v>
+        <v>71797.892693000002</v>
       </c>
       <c r="BO4" s="1">
         <v>19.943859</v>
       </c>
       <c r="BP4" s="1">
-        <v>1485.460000</v>
+        <v>1485.46</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-576.046000</v>
+        <v>-576.04600000000005</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>71808.570567</v>
+        <v>71808.570567000002</v>
       </c>
       <c r="BT4" s="1">
         <v>19.946825</v>
       </c>
       <c r="BU4" s="1">
-        <v>1618.600000</v>
+        <v>1618.6</v>
       </c>
       <c r="BV4" s="1">
-        <v>-823.894000</v>
+        <v>-823.89400000000001</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>71820.058408</v>
+        <v>71820.058407999997</v>
       </c>
       <c r="BY4" s="1">
-        <v>19.950016</v>
+        <v>19.950016000000002</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1770.740000</v>
+        <v>1770.74</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1092.230000</v>
+        <v>-1092.23</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>71831.275469</v>
@@ -1235,60 +1651,60 @@
         <v>19.953132</v>
       </c>
       <c r="CE4" s="1">
-        <v>2187.330000</v>
+        <v>2187.33</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1739.060000</v>
+        <v>-1739.06</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>71660.864938</v>
+        <v>71660.864937999999</v>
       </c>
       <c r="B5" s="1">
-        <v>19.905796</v>
+        <v>19.905795999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>1149.190000</v>
+        <v>1149.19</v>
       </c>
       <c r="D5" s="1">
-        <v>-251.507000</v>
+        <v>-251.50700000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>71671.264060</v>
+        <v>71671.264060000001</v>
       </c>
       <c r="G5" s="1">
-        <v>19.908684</v>
+        <v>19.908684000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>1169.710000</v>
+        <v>1169.71</v>
       </c>
       <c r="I5" s="1">
-        <v>-212.002000</v>
+        <v>-212.00200000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>71681.551583</v>
+        <v>71681.551582999993</v>
       </c>
       <c r="L5" s="1">
-        <v>19.911542</v>
+        <v>19.911542000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>1197.250000</v>
+        <v>1197.25</v>
       </c>
       <c r="N5" s="1">
-        <v>-148.362000</v>
+        <v>-148.36199999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>71691.789009</v>
@@ -1297,133 +1713,133 @@
         <v>19.914386</v>
       </c>
       <c r="R5" s="1">
-        <v>1205.330000</v>
+        <v>1205.33</v>
       </c>
       <c r="S5" s="1">
-        <v>-127.469000</v>
+        <v>-127.46899999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>71701.498693</v>
+        <v>71701.498693000001</v>
       </c>
       <c r="V5" s="1">
-        <v>19.917083</v>
+        <v>19.917083000000002</v>
       </c>
       <c r="W5" s="1">
-        <v>1212.680000</v>
+        <v>1212.68</v>
       </c>
       <c r="X5" s="1">
-        <v>-107.326000</v>
+        <v>-107.32599999999999</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>71711.688039</v>
+        <v>71711.688039000001</v>
       </c>
       <c r="AA5" s="1">
-        <v>19.919913</v>
+        <v>19.919913000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>1220.780000</v>
+        <v>1220.78</v>
       </c>
       <c r="AC5" s="1">
-        <v>-90.864800</v>
+        <v>-90.864800000000002</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>71721.951226</v>
+        <v>71721.951226000005</v>
       </c>
       <c r="AF5" s="1">
-        <v>19.922764</v>
+        <v>19.922764000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>1225.860000</v>
+        <v>1225.8599999999999</v>
       </c>
       <c r="AH5" s="1">
-        <v>-86.427800</v>
+        <v>-86.427800000000005</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>71732.431195</v>
+        <v>71732.431194999997</v>
       </c>
       <c r="AK5" s="1">
-        <v>19.925675</v>
+        <v>19.925674999999998</v>
       </c>
       <c r="AL5" s="1">
-        <v>1233.140000</v>
+        <v>1233.1400000000001</v>
       </c>
       <c r="AM5" s="1">
-        <v>-89.815500</v>
+        <v>-89.8155</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>71743.404686</v>
+        <v>71743.404685999994</v>
       </c>
       <c r="AP5" s="1">
-        <v>19.928724</v>
+        <v>19.928723999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1241.210000</v>
+        <v>1241.21</v>
       </c>
       <c r="AR5" s="1">
-        <v>-101.748000</v>
+        <v>-101.748</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>71754.380159</v>
+        <v>71754.380158999993</v>
       </c>
       <c r="AU5" s="1">
-        <v>19.931772</v>
+        <v>19.931771999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>1251.290000</v>
+        <v>1251.29</v>
       </c>
       <c r="AW5" s="1">
-        <v>-121.033000</v>
+        <v>-121.033</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>71765.467728</v>
+        <v>71765.467728000003</v>
       </c>
       <c r="AZ5" s="1">
-        <v>19.934852</v>
+        <v>19.934851999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1259.800000</v>
+        <v>1259.8</v>
       </c>
       <c r="BB5" s="1">
-        <v>-138.461000</v>
+        <v>-138.46100000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>71776.419393</v>
+        <v>71776.419393000004</v>
       </c>
       <c r="BE5" s="1">
         <v>19.937894</v>
       </c>
       <c r="BF5" s="1">
-        <v>1300.220000</v>
+        <v>1300.22</v>
       </c>
       <c r="BG5" s="1">
-        <v>-220.164000</v>
+        <v>-220.16399999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>71787.156787</v>
@@ -1432,664 +1848,664 @@
         <v>19.940877</v>
       </c>
       <c r="BK5" s="1">
-        <v>1370.350000</v>
+        <v>1370.35</v>
       </c>
       <c r="BL5" s="1">
-        <v>-355.845000</v>
+        <v>-355.84500000000003</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>71798.601508</v>
+        <v>71798.601508000007</v>
       </c>
       <c r="BO5" s="1">
         <v>19.944056</v>
       </c>
       <c r="BP5" s="1">
-        <v>1485.510000</v>
+        <v>1485.51</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-576.107000</v>
+        <v>-576.10699999999997</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>71809.031352</v>
+        <v>71809.031352000005</v>
       </c>
       <c r="BT5" s="1">
-        <v>19.946953</v>
+        <v>19.946953000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1618.620000</v>
+        <v>1618.62</v>
       </c>
       <c r="BV5" s="1">
-        <v>-823.749000</v>
+        <v>-823.74900000000002</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>71820.172487</v>
+        <v>71820.172487000003</v>
       </c>
       <c r="BY5" s="1">
-        <v>19.950048</v>
+        <v>19.950047999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1770.760000</v>
+        <v>1770.76</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1092.200000</v>
+        <v>-1092.2</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>71831.794753</v>
+        <v>71831.794752999995</v>
       </c>
       <c r="CD5" s="1">
-        <v>19.953276</v>
+        <v>19.953275999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>2185.660000</v>
+        <v>2185.66</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1740.440000</v>
+        <v>-1740.44</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>71661.215114</v>
+        <v>71661.215114000006</v>
       </c>
       <c r="B6" s="1">
-        <v>19.905893</v>
+        <v>19.905892999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>1149.300000</v>
+        <v>1149.3</v>
       </c>
       <c r="D6" s="1">
-        <v>-251.366000</v>
+        <v>-251.36600000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>71671.687644</v>
+        <v>71671.687644000005</v>
       </c>
       <c r="G6" s="1">
-        <v>19.908802</v>
+        <v>19.908802000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>1170.360000</v>
+        <v>1170.3599999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>-211.778000</v>
+        <v>-211.77799999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>71681.825385</v>
+        <v>71681.825385000004</v>
       </c>
       <c r="L6" s="1">
-        <v>19.911618</v>
+        <v>19.911618000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>1197.200000</v>
+        <v>1197.2</v>
       </c>
       <c r="N6" s="1">
-        <v>-148.579000</v>
+        <v>-148.57900000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>71692.060359</v>
+        <v>71692.060358999996</v>
       </c>
       <c r="Q6" s="1">
-        <v>19.914461</v>
+        <v>19.914460999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>1205.260000</v>
+        <v>1205.26</v>
       </c>
       <c r="S6" s="1">
-        <v>-127.429000</v>
+        <v>-127.429</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>71701.841435</v>
+        <v>71701.841434999995</v>
       </c>
       <c r="V6" s="1">
         <v>19.917178</v>
       </c>
       <c r="W6" s="1">
-        <v>1212.910000</v>
+        <v>1212.9100000000001</v>
       </c>
       <c r="X6" s="1">
-        <v>-107.294000</v>
+        <v>-107.294</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>71712.043638</v>
+        <v>71712.043638000003</v>
       </c>
       <c r="AA6" s="1">
         <v>19.920012</v>
       </c>
       <c r="AB6" s="1">
-        <v>1220.900000</v>
+        <v>1220.9000000000001</v>
       </c>
       <c r="AC6" s="1">
-        <v>-90.838900</v>
+        <v>-90.838899999999995</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>71722.295450</v>
+        <v>71722.295450000005</v>
       </c>
       <c r="AF6" s="1">
-        <v>19.922860</v>
+        <v>19.92286</v>
       </c>
       <c r="AG6" s="1">
-        <v>1225.680000</v>
+        <v>1225.68</v>
       </c>
       <c r="AH6" s="1">
-        <v>-86.526200</v>
+        <v>-86.526200000000003</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>71733.131051</v>
+        <v>71733.131051000004</v>
       </c>
       <c r="AK6" s="1">
-        <v>19.925870</v>
+        <v>19.92587</v>
       </c>
       <c r="AL6" s="1">
-        <v>1233.130000</v>
+        <v>1233.1300000000001</v>
       </c>
       <c r="AM6" s="1">
-        <v>-89.828300</v>
+        <v>-89.828299999999999</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>71743.771724</v>
+        <v>71743.771724000006</v>
       </c>
       <c r="AP6" s="1">
         <v>19.928825</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1241.200000</v>
+        <v>1241.2</v>
       </c>
       <c r="AR6" s="1">
-        <v>-101.740000</v>
+        <v>-101.74</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>71754.743726</v>
+        <v>71754.743726000001</v>
       </c>
       <c r="AU6" s="1">
         <v>19.931873</v>
       </c>
       <c r="AV6" s="1">
-        <v>1251.290000</v>
+        <v>1251.29</v>
       </c>
       <c r="AW6" s="1">
-        <v>-121.023000</v>
+        <v>-121.023</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>71765.846175</v>
+        <v>71765.846174999999</v>
       </c>
       <c r="AZ6" s="1">
-        <v>19.934957</v>
+        <v>19.934957000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1259.800000</v>
+        <v>1259.8</v>
       </c>
       <c r="BB6" s="1">
-        <v>-138.457000</v>
+        <v>-138.45699999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>71777.093489</v>
+        <v>71777.093489000006</v>
       </c>
       <c r="BE6" s="1">
-        <v>19.938082</v>
+        <v>19.938082000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1300.230000</v>
+        <v>1300.23</v>
       </c>
       <c r="BG6" s="1">
-        <v>-220.180000</v>
+        <v>-220.18</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>71787.845277</v>
       </c>
       <c r="BJ6" s="1">
-        <v>19.941068</v>
+        <v>19.941068000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1370.340000</v>
+        <v>1370.34</v>
       </c>
       <c r="BL6" s="1">
-        <v>-355.902000</v>
+        <v>-355.90199999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>71798.724980</v>
+        <v>71798.724979999999</v>
       </c>
       <c r="BO6" s="1">
-        <v>19.944090</v>
+        <v>19.944089999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1485.520000</v>
+        <v>1485.52</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-576.098000</v>
+        <v>-576.09799999999996</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>71809.425174</v>
+        <v>71809.425174000004</v>
       </c>
       <c r="BT6" s="1">
         <v>19.947063</v>
       </c>
       <c r="BU6" s="1">
-        <v>1618.580000</v>
+        <v>1618.58</v>
       </c>
       <c r="BV6" s="1">
-        <v>-823.669000</v>
+        <v>-823.66899999999998</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>71820.608502</v>
+        <v>71820.608502000003</v>
       </c>
       <c r="BY6" s="1">
-        <v>19.950169</v>
+        <v>19.950168999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1770.670000</v>
+        <v>1770.67</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1092.110000</v>
+        <v>-1092.1099999999999</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>71832.312584</v>
+        <v>71832.312583999999</v>
       </c>
       <c r="CD6" s="1">
-        <v>19.953420</v>
+        <v>19.953420000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>2187.580000</v>
+        <v>2187.58</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1741.850000</v>
+        <v>-1741.85</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>71661.724009</v>
+        <v>71661.724008999998</v>
       </c>
       <c r="B7" s="1">
-        <v>19.906034</v>
+        <v>19.906033999999998</v>
       </c>
       <c r="C7" s="1">
-        <v>1149.240000</v>
+        <v>1149.24</v>
       </c>
       <c r="D7" s="1">
-        <v>-251.573000</v>
+        <v>-251.57300000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>71671.955495</v>
+        <v>71671.955495000002</v>
       </c>
       <c r="G7" s="1">
         <v>19.908877</v>
       </c>
       <c r="H7" s="1">
-        <v>1169.450000</v>
+        <v>1169.45</v>
       </c>
       <c r="I7" s="1">
-        <v>-212.062000</v>
+        <v>-212.06200000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>71682.168644</v>
+        <v>71682.168644000005</v>
       </c>
       <c r="L7" s="1">
         <v>19.911714</v>
       </c>
       <c r="M7" s="1">
-        <v>1197.290000</v>
+        <v>1197.29</v>
       </c>
       <c r="N7" s="1">
-        <v>-148.448000</v>
+        <v>-148.44800000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>71692.409009</v>
+        <v>71692.409008999995</v>
       </c>
       <c r="Q7" s="1">
         <v>19.914558</v>
       </c>
       <c r="R7" s="1">
-        <v>1205.270000</v>
+        <v>1205.27</v>
       </c>
       <c r="S7" s="1">
-        <v>-127.466000</v>
+        <v>-127.46599999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>71702.186148</v>
+        <v>71702.186147999993</v>
       </c>
       <c r="V7" s="1">
-        <v>19.917274</v>
+        <v>19.917273999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>1212.820000</v>
+        <v>1212.82</v>
       </c>
       <c r="X7" s="1">
-        <v>-107.404000</v>
+        <v>-107.404</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>71712.740519</v>
+        <v>71712.740518999999</v>
       </c>
       <c r="AA7" s="1">
         <v>19.920206</v>
       </c>
       <c r="AB7" s="1">
-        <v>1220.810000</v>
+        <v>1220.81</v>
       </c>
       <c r="AC7" s="1">
-        <v>-90.862100</v>
+        <v>-90.862099999999998</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>71722.980424</v>
+        <v>71722.980423999994</v>
       </c>
       <c r="AF7" s="1">
-        <v>19.923050</v>
+        <v>19.92305</v>
       </c>
       <c r="AG7" s="1">
-        <v>1225.770000</v>
+        <v>1225.77</v>
       </c>
       <c r="AH7" s="1">
-        <v>-86.395700</v>
+        <v>-86.395700000000005</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>71733.476267</v>
+        <v>71733.476267000005</v>
       </c>
       <c r="AK7" s="1">
-        <v>19.925966</v>
+        <v>19.925965999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>1233.110000</v>
+        <v>1233.1099999999999</v>
       </c>
       <c r="AM7" s="1">
-        <v>-89.858700</v>
+        <v>-89.858699999999999</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>71744.130828</v>
+        <v>71744.130827999994</v>
       </c>
       <c r="AP7" s="1">
         <v>19.928925</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1241.200000</v>
+        <v>1241.2</v>
       </c>
       <c r="AR7" s="1">
-        <v>-101.752000</v>
+        <v>-101.752</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>71755.110797</v>
+        <v>71755.110797000001</v>
       </c>
       <c r="AU7" s="1">
-        <v>19.931975</v>
+        <v>19.931975000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>1251.300000</v>
+        <v>1251.3</v>
       </c>
       <c r="AW7" s="1">
-        <v>-121.025000</v>
+        <v>-121.02500000000001</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>71766.514287</v>
+        <v>71766.514286999998</v>
       </c>
       <c r="AZ7" s="1">
         <v>19.935143</v>
       </c>
       <c r="BA7" s="1">
-        <v>1259.800000</v>
+        <v>1259.8</v>
       </c>
       <c r="BB7" s="1">
-        <v>-138.460000</v>
+        <v>-138.46</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>71777.535889</v>
+        <v>71777.535889000006</v>
       </c>
       <c r="BE7" s="1">
-        <v>19.938204</v>
+        <v>19.938203999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1300.230000</v>
+        <v>1300.23</v>
       </c>
       <c r="BG7" s="1">
-        <v>-220.161000</v>
+        <v>-220.161</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>71788.283212</v>
+        <v>71788.283211999995</v>
       </c>
       <c r="BJ7" s="1">
-        <v>19.941190</v>
+        <v>19.941189999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1370.340000</v>
+        <v>1370.34</v>
       </c>
       <c r="BL7" s="1">
-        <v>-355.901000</v>
+        <v>-355.90100000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>71799.138675</v>
+        <v>71799.138674999995</v>
       </c>
       <c r="BO7" s="1">
         <v>19.944205</v>
       </c>
       <c r="BP7" s="1">
-        <v>1485.500000</v>
+        <v>1485.5</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-576.078000</v>
+        <v>-576.07799999999997</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>71809.836389</v>
+        <v>71809.836389000004</v>
       </c>
       <c r="BT7" s="1">
         <v>19.947177</v>
       </c>
       <c r="BU7" s="1">
-        <v>1618.600000</v>
+        <v>1618.6</v>
       </c>
       <c r="BV7" s="1">
-        <v>-823.550000</v>
+        <v>-823.55</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>71821.032066</v>
       </c>
       <c r="BY7" s="1">
-        <v>19.950287</v>
+        <v>19.950286999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1770.650000</v>
+        <v>1770.65</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1092.250000</v>
+        <v>-1092.25</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>71832.829896</v>
+        <v>71832.829895999996</v>
       </c>
       <c r="CD7" s="1">
         <v>19.953564</v>
       </c>
       <c r="CE7" s="1">
-        <v>2186.340000</v>
+        <v>2186.34</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1741.220000</v>
+        <v>-1741.22</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>71661.910505</v>
+        <v>71661.910505000007</v>
       </c>
       <c r="B8" s="1">
-        <v>19.906086</v>
+        <v>19.906085999999998</v>
       </c>
       <c r="C8" s="1">
-        <v>1149.350000</v>
+        <v>1149.3499999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-251.639000</v>
+        <v>-251.63900000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>71672.300235</v>
+        <v>71672.300235000002</v>
       </c>
       <c r="G8" s="1">
-        <v>19.908972</v>
+        <v>19.908971999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>1169.690000</v>
+        <v>1169.69</v>
       </c>
       <c r="I8" s="1">
-        <v>-212.057000</v>
+        <v>-212.05699999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>71682.515309</v>
+        <v>71682.515308999995</v>
       </c>
       <c r="L8" s="1">
-        <v>19.911810</v>
+        <v>19.911809999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>1197.300000</v>
+        <v>1197.3</v>
       </c>
       <c r="N8" s="1">
-        <v>-148.495000</v>
+        <v>-148.495</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>71692.757200</v>
+        <v>71692.757199999993</v>
       </c>
       <c r="Q8" s="1">
         <v>19.914655</v>
       </c>
       <c r="R8" s="1">
-        <v>1205.300000</v>
+        <v>1205.3</v>
       </c>
       <c r="S8" s="1">
-        <v>-127.394000</v>
+        <v>-127.39400000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>71702.869138</v>
+        <v>71702.869137999995</v>
       </c>
       <c r="V8" s="1">
-        <v>19.917464</v>
+        <v>19.917463999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>1212.910000</v>
+        <v>1212.9100000000001</v>
       </c>
       <c r="X8" s="1">
-        <v>-107.429000</v>
+        <v>-107.429</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>71713.085733</v>
@@ -2098,300 +2514,300 @@
         <v>19.920302</v>
       </c>
       <c r="AB8" s="1">
-        <v>1220.890000</v>
+        <v>1220.8900000000001</v>
       </c>
       <c r="AC8" s="1">
-        <v>-90.834600</v>
+        <v>-90.834599999999995</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>71723.320185</v>
+        <v>71723.320185000004</v>
       </c>
       <c r="AF8" s="1">
-        <v>19.923144</v>
+        <v>19.923144000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>1225.760000</v>
+        <v>1225.76</v>
       </c>
       <c r="AH8" s="1">
-        <v>-86.434700</v>
+        <v>-86.434700000000007</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>71733.827961</v>
+        <v>71733.827961000003</v>
       </c>
       <c r="AK8" s="1">
-        <v>19.926063</v>
+        <v>19.926062999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>1233.110000</v>
+        <v>1233.1099999999999</v>
       </c>
       <c r="AM8" s="1">
-        <v>-89.851500</v>
+        <v>-89.851500000000001</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>71744.802907</v>
+        <v>71744.802907000005</v>
       </c>
       <c r="AP8" s="1">
         <v>19.929112</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1241.220000</v>
+        <v>1241.22</v>
       </c>
       <c r="AR8" s="1">
-        <v>-101.750000</v>
+        <v>-101.75</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>71755.785931</v>
+        <v>71755.785931000006</v>
       </c>
       <c r="AU8" s="1">
-        <v>19.932163</v>
+        <v>19.932162999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>1251.310000</v>
+        <v>1251.31</v>
       </c>
       <c r="AW8" s="1">
-        <v>-121.056000</v>
+        <v>-121.056</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>71766.928478</v>
+        <v>71766.928478000002</v>
       </c>
       <c r="AZ8" s="1">
-        <v>19.935258</v>
+        <v>19.935258000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1259.810000</v>
+        <v>1259.81</v>
       </c>
       <c r="BB8" s="1">
-        <v>-138.451000</v>
+        <v>-138.45099999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>71777.893504</v>
+        <v>71777.893504000007</v>
       </c>
       <c r="BE8" s="1">
-        <v>19.938304</v>
+        <v>19.938303999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1300.220000</v>
+        <v>1300.22</v>
       </c>
       <c r="BG8" s="1">
-        <v>-220.180000</v>
+        <v>-220.18</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>71788.657185</v>
+        <v>71788.657185000004</v>
       </c>
       <c r="BJ8" s="1">
-        <v>19.941294</v>
+        <v>19.941293999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1370.340000</v>
+        <v>1370.34</v>
       </c>
       <c r="BL8" s="1">
-        <v>-355.862000</v>
+        <v>-355.86200000000002</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>71799.533474</v>
+        <v>71799.533473999996</v>
       </c>
       <c r="BO8" s="1">
         <v>19.944315</v>
       </c>
       <c r="BP8" s="1">
-        <v>1485.450000</v>
+        <v>1485.45</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-576.070000</v>
+        <v>-576.07000000000005</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>71810.270360</v>
+        <v>71810.270359999995</v>
       </c>
       <c r="BT8" s="1">
-        <v>19.947297</v>
+        <v>19.947296999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1618.450000</v>
+        <v>1618.45</v>
       </c>
       <c r="BV8" s="1">
-        <v>-823.455000</v>
+        <v>-823.45500000000004</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>71821.466054</v>
+        <v>71821.466054000004</v>
       </c>
       <c r="BY8" s="1">
-        <v>19.950407</v>
+        <v>19.950406999999998</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1770.700000</v>
+        <v>1770.7</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1092.300000</v>
+        <v>-1092.3</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>71833.382438</v>
+        <v>71833.382438000001</v>
       </c>
       <c r="CD8" s="1">
-        <v>19.953717</v>
+        <v>19.953717000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>2185.840000</v>
+        <v>2185.84</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1740.240000</v>
+        <v>-1740.24</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>71662.240382</v>
+        <v>71662.240382000004</v>
       </c>
       <c r="B9" s="1">
-        <v>19.906178</v>
+        <v>19.906178000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>1149.120000</v>
+        <v>1149.1199999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>-251.447000</v>
+        <v>-251.447</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>71672.645418</v>
       </c>
       <c r="G9" s="1">
-        <v>19.909068</v>
+        <v>19.909068000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>1170.010000</v>
+        <v>1170.01</v>
       </c>
       <c r="I9" s="1">
-        <v>-211.777000</v>
+        <v>-211.77699999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>71683.210205</v>
+        <v>71683.210204999996</v>
       </c>
       <c r="L9" s="1">
-        <v>19.912003</v>
+        <v>19.912002999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>1197.220000</v>
+        <v>1197.22</v>
       </c>
       <c r="N9" s="1">
-        <v>-148.444000</v>
+        <v>-148.44399999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>71693.461023</v>
+        <v>71693.461022999996</v>
       </c>
       <c r="Q9" s="1">
-        <v>19.914850</v>
+        <v>19.914850000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>1205.310000</v>
+        <v>1205.31</v>
       </c>
       <c r="S9" s="1">
-        <v>-127.373000</v>
+        <v>-127.373</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>71703.211875</v>
+        <v>71703.211874999994</v>
       </c>
       <c r="V9" s="1">
-        <v>19.917559</v>
+        <v>19.917559000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>1212.710000</v>
+        <v>1212.71</v>
       </c>
       <c r="X9" s="1">
-        <v>-107.390000</v>
+        <v>-107.39</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>71713.433925</v>
+        <v>71713.433925000005</v>
       </c>
       <c r="AA9" s="1">
-        <v>19.920398</v>
+        <v>19.920397999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>1220.780000</v>
+        <v>1220.78</v>
       </c>
       <c r="AC9" s="1">
-        <v>-90.806800</v>
+        <v>-90.806799999999996</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>71723.667879</v>
+        <v>71723.667879000001</v>
       </c>
       <c r="AF9" s="1">
-        <v>19.923241</v>
+        <v>19.923241000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>1225.620000</v>
+        <v>1225.6199999999999</v>
       </c>
       <c r="AH9" s="1">
-        <v>-86.466000</v>
+        <v>-86.465999999999994</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>71734.480665</v>
+        <v>71734.480664999995</v>
       </c>
       <c r="AK9" s="1">
-        <v>19.926245</v>
+        <v>19.926245000000002</v>
       </c>
       <c r="AL9" s="1">
-        <v>1233.110000</v>
+        <v>1233.1099999999999</v>
       </c>
       <c r="AM9" s="1">
-        <v>-89.821000</v>
+        <v>-89.820999999999998</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>71745.237899</v>
@@ -2400,497 +2816,497 @@
         <v>19.929233</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1241.190000</v>
+        <v>1241.19</v>
       </c>
       <c r="AR9" s="1">
-        <v>-101.757000</v>
+        <v>-101.75700000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>71756.202958</v>
+        <v>71756.202957999994</v>
       </c>
       <c r="AU9" s="1">
-        <v>19.932279</v>
+        <v>19.932279000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>1251.290000</v>
+        <v>1251.29</v>
       </c>
       <c r="AW9" s="1">
-        <v>-121.033000</v>
+        <v>-121.033</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>71767.304413</v>
+        <v>71767.304413000005</v>
       </c>
       <c r="AZ9" s="1">
-        <v>19.935362</v>
+        <v>19.935362000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1259.780000</v>
+        <v>1259.78</v>
       </c>
       <c r="BB9" s="1">
-        <v>-138.461000</v>
+        <v>-138.46100000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>71778.255596</v>
+        <v>71778.255596000003</v>
       </c>
       <c r="BE9" s="1">
-        <v>19.938404</v>
+        <v>19.938403999999998</v>
       </c>
       <c r="BF9" s="1">
-        <v>1300.230000</v>
+        <v>1300.23</v>
       </c>
       <c r="BG9" s="1">
-        <v>-220.175000</v>
+        <v>-220.17500000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>71789.032954</v>
+        <v>71789.032953999995</v>
       </c>
       <c r="BJ9" s="1">
         <v>19.941398</v>
       </c>
       <c r="BK9" s="1">
-        <v>1370.330000</v>
+        <v>1370.33</v>
       </c>
       <c r="BL9" s="1">
-        <v>-355.894000</v>
+        <v>-355.89400000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>71799.962002</v>
       </c>
       <c r="BO9" s="1">
-        <v>19.944434</v>
+        <v>19.944434000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1485.530000</v>
+        <v>1485.53</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-576.057000</v>
+        <v>-576.05700000000002</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>71810.694446</v>
+        <v>71810.694445999994</v>
       </c>
       <c r="BT9" s="1">
-        <v>19.947415</v>
+        <v>19.947414999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1618.340000</v>
+        <v>1618.34</v>
       </c>
       <c r="BV9" s="1">
-        <v>-823.382000</v>
+        <v>-823.38199999999995</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>71821.879222</v>
+        <v>71821.879222000003</v>
       </c>
       <c r="BY9" s="1">
-        <v>19.950522</v>
+        <v>19.950521999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1770.690000</v>
+        <v>1770.69</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1092.130000</v>
+        <v>-1092.1300000000001</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>71833.913157</v>
+        <v>71833.913157000003</v>
       </c>
       <c r="CD9" s="1">
         <v>19.953865</v>
       </c>
       <c r="CE9" s="1">
-        <v>2186.900000</v>
+        <v>2186.9</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1741.650000</v>
+        <v>-1741.65</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>71662.921885</v>
+        <v>71662.921885000003</v>
       </c>
       <c r="B10" s="1">
-        <v>19.906367</v>
+        <v>19.906366999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>1148.990000</v>
+        <v>1148.99</v>
       </c>
       <c r="D10" s="1">
-        <v>-251.358000</v>
+        <v>-251.358</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>71673.336874</v>
+        <v>71673.336874000001</v>
       </c>
       <c r="G10" s="1">
-        <v>19.909260</v>
+        <v>19.90926</v>
       </c>
       <c r="H10" s="1">
-        <v>1170.170000</v>
+        <v>1170.17</v>
       </c>
       <c r="I10" s="1">
-        <v>-211.525000</v>
+        <v>-211.52500000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>71683.560876</v>
+        <v>71683.560876000003</v>
       </c>
       <c r="L10" s="1">
-        <v>19.912100</v>
+        <v>19.912099999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>1197.150000</v>
+        <v>1197.1500000000001</v>
       </c>
       <c r="N10" s="1">
-        <v>-148.600000</v>
+        <v>-148.6</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>71693.801788</v>
+        <v>71693.801787999997</v>
       </c>
       <c r="Q10" s="1">
-        <v>19.914945</v>
+        <v>19.914944999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>1205.320000</v>
+        <v>1205.32</v>
       </c>
       <c r="S10" s="1">
-        <v>-127.444000</v>
+        <v>-127.444</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>71703.560595</v>
+        <v>71703.560595000003</v>
       </c>
       <c r="V10" s="1">
-        <v>19.917656</v>
+        <v>19.917656000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>1212.820000</v>
+        <v>1212.82</v>
       </c>
       <c r="X10" s="1">
-        <v>-107.319000</v>
+        <v>-107.319</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>71714.102067</v>
       </c>
       <c r="AA10" s="1">
-        <v>19.920584</v>
+        <v>19.920584000000002</v>
       </c>
       <c r="AB10" s="1">
-        <v>1220.840000</v>
+        <v>1220.8399999999999</v>
       </c>
       <c r="AC10" s="1">
-        <v>-90.781000</v>
+        <v>-90.781000000000006</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>71724.334998</v>
+        <v>71724.334998000006</v>
       </c>
       <c r="AF10" s="1">
-        <v>19.923426</v>
+        <v>19.923425999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>1225.740000</v>
+        <v>1225.74</v>
       </c>
       <c r="AH10" s="1">
-        <v>-86.427400</v>
+        <v>-86.427400000000006</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>71734.873032</v>
+        <v>71734.873032000003</v>
       </c>
       <c r="AK10" s="1">
         <v>19.926354</v>
       </c>
       <c r="AL10" s="1">
-        <v>1233.130000</v>
+        <v>1233.1300000000001</v>
       </c>
       <c r="AM10" s="1">
-        <v>-89.846000</v>
+        <v>-89.846000000000004</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>71745.597002</v>
+        <v>71745.597001999995</v>
       </c>
       <c r="AP10" s="1">
         <v>19.929333</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1241.200000</v>
+        <v>1241.2</v>
       </c>
       <c r="AR10" s="1">
-        <v>-101.734000</v>
+        <v>-101.73399999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>71756.569328</v>
+        <v>71756.569327999998</v>
       </c>
       <c r="AU10" s="1">
-        <v>19.932380</v>
+        <v>19.932379999999998</v>
       </c>
       <c r="AV10" s="1">
-        <v>1251.290000</v>
+        <v>1251.29</v>
       </c>
       <c r="AW10" s="1">
-        <v>-120.998000</v>
+        <v>-120.998</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>71767.684917</v>
+        <v>71767.684917000006</v>
       </c>
       <c r="AZ10" s="1">
         <v>19.935468</v>
       </c>
       <c r="BA10" s="1">
-        <v>1259.800000</v>
+        <v>1259.8</v>
       </c>
       <c r="BB10" s="1">
-        <v>-138.470000</v>
+        <v>-138.47</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>71778.684624</v>
+        <v>71778.684624000001</v>
       </c>
       <c r="BE10" s="1">
-        <v>19.938524</v>
+        <v>19.938524000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1300.190000</v>
+        <v>1300.19</v>
       </c>
       <c r="BG10" s="1">
-        <v>-220.166000</v>
+        <v>-220.166</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>71789.472609</v>
+        <v>71789.472609000004</v>
       </c>
       <c r="BJ10" s="1">
-        <v>19.941520</v>
+        <v>19.941520000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1370.380000</v>
+        <v>1370.38</v>
       </c>
       <c r="BL10" s="1">
-        <v>-355.846000</v>
+        <v>-355.846</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>71800.350369</v>
+        <v>71800.350369000007</v>
       </c>
       <c r="BO10" s="1">
-        <v>19.944542</v>
+        <v>19.944541999999998</v>
       </c>
       <c r="BP10" s="1">
-        <v>1485.480000</v>
+        <v>1485.48</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-576.041000</v>
+        <v>-576.04100000000005</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>71811.107107</v>
+        <v>71811.107107000003</v>
       </c>
       <c r="BT10" s="1">
-        <v>19.947530</v>
+        <v>19.94753</v>
       </c>
       <c r="BU10" s="1">
-        <v>1618.220000</v>
+        <v>1618.22</v>
       </c>
       <c r="BV10" s="1">
-        <v>-823.426000</v>
+        <v>-823.42600000000004</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>71822.297348</v>
+        <v>71822.297347999993</v>
       </c>
       <c r="BY10" s="1">
-        <v>19.950638</v>
+        <v>19.950638000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1770.680000</v>
+        <v>1770.68</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1092.130000</v>
+        <v>-1092.1300000000001</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>71834.431013</v>
+        <v>71834.431012999994</v>
       </c>
       <c r="CD10" s="1">
-        <v>19.954009</v>
+        <v>19.954008999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>2186.240000</v>
+        <v>2186.2399999999998</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1741.150000</v>
+        <v>-1741.15</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>71663.262599</v>
+        <v>71663.262598999994</v>
       </c>
       <c r="B11" s="1">
-        <v>19.906462</v>
+        <v>19.906462000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>1149.400000</v>
+        <v>1149.4000000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>-251.328000</v>
+        <v>-251.328</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>71673.693496</v>
+        <v>71673.693496000007</v>
       </c>
       <c r="G11" s="1">
-        <v>19.909359</v>
+        <v>19.909358999999998</v>
       </c>
       <c r="H11" s="1">
-        <v>1170.150000</v>
+        <v>1170.1500000000001</v>
       </c>
       <c r="I11" s="1">
-        <v>-212.182000</v>
+        <v>-212.18199999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>71683.906092</v>
+        <v>71683.906092000005</v>
       </c>
       <c r="L11" s="1">
-        <v>19.912196</v>
+        <v>19.912196000000002</v>
       </c>
       <c r="M11" s="1">
-        <v>1197.170000</v>
+        <v>1197.17</v>
       </c>
       <c r="N11" s="1">
-        <v>-148.547000</v>
+        <v>-148.547</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>71694.147984</v>
+        <v>71694.147983999996</v>
       </c>
       <c r="Q11" s="1">
-        <v>19.915041</v>
+        <v>19.915040999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>1205.280000</v>
+        <v>1205.28</v>
       </c>
       <c r="S11" s="1">
-        <v>-127.491000</v>
+        <v>-127.491</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>71704.225697</v>
+        <v>71704.225697000002</v>
       </c>
       <c r="V11" s="1">
-        <v>19.917840</v>
+        <v>19.917840000000002</v>
       </c>
       <c r="W11" s="1">
-        <v>1212.790000</v>
+        <v>1212.79</v>
       </c>
       <c r="X11" s="1">
-        <v>-107.472000</v>
+        <v>-107.47199999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>71714.482004</v>
+        <v>71714.482004000005</v>
       </c>
       <c r="AA11" s="1">
-        <v>19.920689</v>
+        <v>19.920688999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>1220.800000</v>
+        <v>1220.8</v>
       </c>
       <c r="AC11" s="1">
-        <v>-90.752400</v>
+        <v>-90.752399999999994</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>71724.706503</v>
+        <v>71724.706502999994</v>
       </c>
       <c r="AF11" s="1">
-        <v>19.923530</v>
+        <v>19.92353</v>
       </c>
       <c r="AG11" s="1">
-        <v>1225.720000</v>
+        <v>1225.72</v>
       </c>
       <c r="AH11" s="1">
-        <v>-86.453900</v>
+        <v>-86.453900000000004</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>71735.223176</v>
@@ -2899,2780 +3315,2780 @@
         <v>19.926451</v>
       </c>
       <c r="AL11" s="1">
-        <v>1233.140000</v>
+        <v>1233.1400000000001</v>
       </c>
       <c r="AM11" s="1">
-        <v>-89.823600</v>
+        <v>-89.823599999999999</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>71745.961561</v>
+        <v>71745.961561000004</v>
       </c>
       <c r="AP11" s="1">
-        <v>19.929434</v>
+        <v>19.929434000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1241.210000</v>
+        <v>1241.21</v>
       </c>
       <c r="AR11" s="1">
-        <v>-101.722000</v>
+        <v>-101.72199999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>71756.933564</v>
+        <v>71756.933564000006</v>
       </c>
       <c r="AU11" s="1">
         <v>19.932482</v>
       </c>
       <c r="AV11" s="1">
-        <v>1251.280000</v>
+        <v>1251.28</v>
       </c>
       <c r="AW11" s="1">
-        <v>-121.006000</v>
+        <v>-121.006</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>71768.120371</v>
+        <v>71768.120370999997</v>
       </c>
       <c r="AZ11" s="1">
         <v>19.935589</v>
       </c>
       <c r="BA11" s="1">
-        <v>1259.820000</v>
+        <v>1259.82</v>
       </c>
       <c r="BB11" s="1">
-        <v>-138.471000</v>
+        <v>-138.471</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>71778.976271</v>
+        <v>71778.976271000007</v>
       </c>
       <c r="BE11" s="1">
-        <v>19.938605</v>
+        <v>19.938604999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1300.230000</v>
+        <v>1300.23</v>
       </c>
       <c r="BG11" s="1">
-        <v>-220.193000</v>
+        <v>-220.19300000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>71789.816213</v>
+        <v>71789.816212999998</v>
       </c>
       <c r="BJ11" s="1">
         <v>19.941616</v>
       </c>
       <c r="BK11" s="1">
-        <v>1370.350000</v>
+        <v>1370.35</v>
       </c>
       <c r="BL11" s="1">
-        <v>-355.899000</v>
+        <v>-355.899</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>71800.769526</v>
+        <v>71800.769526000004</v>
       </c>
       <c r="BO11" s="1">
         <v>19.944658</v>
       </c>
       <c r="BP11" s="1">
-        <v>1485.480000</v>
+        <v>1485.48</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-576.090000</v>
+        <v>-576.09</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>71811.540115</v>
+        <v>71811.540114999996</v>
       </c>
       <c r="BT11" s="1">
-        <v>19.947650</v>
+        <v>19.947649999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>1618.070000</v>
+        <v>1618.07</v>
       </c>
       <c r="BV11" s="1">
-        <v>-823.366000</v>
+        <v>-823.36599999999999</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>71822.747252</v>
+        <v>71822.747252000001</v>
       </c>
       <c r="BY11" s="1">
-        <v>19.950763</v>
+        <v>19.950762999999998</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1770.690000</v>
+        <v>1770.69</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1092.220000</v>
+        <v>-1092.22</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>71834.992948</v>
+        <v>71834.992947999999</v>
       </c>
       <c r="CD11" s="1">
         <v>19.954165</v>
       </c>
       <c r="CE11" s="1">
-        <v>2185.910000</v>
+        <v>2185.91</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1740.040000</v>
+        <v>-1740.04</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>71663.602358</v>
+        <v>71663.602358000004</v>
       </c>
       <c r="B12" s="1">
-        <v>19.906556</v>
+        <v>19.906555999999998</v>
       </c>
       <c r="C12" s="1">
-        <v>1149.150000</v>
+        <v>1149.1500000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>-251.716000</v>
+        <v>-251.71600000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>71674.035705</v>
+        <v>71674.035705000002</v>
       </c>
       <c r="G12" s="1">
         <v>19.909454</v>
       </c>
       <c r="H12" s="1">
-        <v>1170.390000</v>
+        <v>1170.3900000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-211.599000</v>
+        <v>-211.59899999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>71684.564778</v>
       </c>
       <c r="L12" s="1">
-        <v>19.912379</v>
+        <v>19.912379000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>1197.180000</v>
+        <v>1197.18</v>
       </c>
       <c r="N12" s="1">
-        <v>-148.632000</v>
+        <v>-148.63200000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>71694.598847</v>
+        <v>71694.598847000001</v>
       </c>
       <c r="Q12" s="1">
-        <v>19.915166</v>
+        <v>19.915165999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>1205.250000</v>
+        <v>1205.25</v>
       </c>
       <c r="S12" s="1">
-        <v>-127.430000</v>
+        <v>-127.43</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>71704.596240</v>
+        <v>71704.596239999999</v>
       </c>
       <c r="V12" s="1">
-        <v>19.917943</v>
+        <v>19.917943000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>1213.000000</v>
+        <v>1213</v>
       </c>
       <c r="X12" s="1">
-        <v>-107.375000</v>
+        <v>-107.375</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>71714.831155</v>
+        <v>71714.831155000007</v>
       </c>
       <c r="AA12" s="1">
         <v>19.920786</v>
       </c>
       <c r="AB12" s="1">
-        <v>1220.810000</v>
+        <v>1220.81</v>
       </c>
       <c r="AC12" s="1">
-        <v>-90.756300</v>
+        <v>-90.756299999999996</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>71725.055190</v>
+        <v>71725.055189999999</v>
       </c>
       <c r="AF12" s="1">
-        <v>19.923626</v>
+        <v>19.923625999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>1225.750000</v>
+        <v>1225.75</v>
       </c>
       <c r="AH12" s="1">
-        <v>-86.442400</v>
+        <v>-86.442400000000006</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>71735.575832</v>
+        <v>71735.575832000002</v>
       </c>
       <c r="AK12" s="1">
-        <v>19.926549</v>
+        <v>19.926549000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>1233.120000</v>
+        <v>1233.1199999999999</v>
       </c>
       <c r="AM12" s="1">
-        <v>-89.850200</v>
+        <v>-89.850200000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>71746.389610</v>
+        <v>71746.389609999998</v>
       </c>
       <c r="AP12" s="1">
-        <v>19.929553</v>
+        <v>19.929552999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1241.220000</v>
+        <v>1241.22</v>
       </c>
       <c r="AR12" s="1">
-        <v>-101.731000</v>
+        <v>-101.73099999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>71757.362622</v>
+        <v>71757.362622000001</v>
       </c>
       <c r="AU12" s="1">
-        <v>19.932601</v>
+        <v>19.932600999999998</v>
       </c>
       <c r="AV12" s="1">
-        <v>1251.300000</v>
+        <v>1251.3</v>
       </c>
       <c r="AW12" s="1">
-        <v>-121.024000</v>
+        <v>-121.024</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>71768.403052</v>
+        <v>71768.403051999994</v>
       </c>
       <c r="AZ12" s="1">
         <v>19.935668</v>
       </c>
       <c r="BA12" s="1">
-        <v>1259.770000</v>
+        <v>1259.77</v>
       </c>
       <c r="BB12" s="1">
-        <v>-138.445000</v>
+        <v>-138.44499999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>71779.339374</v>
+        <v>71779.339374000003</v>
       </c>
       <c r="BE12" s="1">
-        <v>19.938705</v>
+        <v>19.938704999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1300.220000</v>
+        <v>1300.22</v>
       </c>
       <c r="BG12" s="1">
-        <v>-220.199000</v>
+        <v>-220.19900000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>71790.190815</v>
+        <v>71790.190814999994</v>
       </c>
       <c r="BJ12" s="1">
-        <v>19.941720</v>
+        <v>19.94172</v>
       </c>
       <c r="BK12" s="1">
-        <v>1370.330000</v>
+        <v>1370.33</v>
       </c>
       <c r="BL12" s="1">
-        <v>-355.878000</v>
+        <v>-355.87799999999999</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>71801.164801</v>
+        <v>71801.164801000006</v>
       </c>
       <c r="BO12" s="1">
         <v>19.944768</v>
       </c>
       <c r="BP12" s="1">
-        <v>1485.490000</v>
+        <v>1485.49</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-576.110000</v>
+        <v>-576.11</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>71811.971634</v>
+        <v>71811.971634000001</v>
       </c>
       <c r="BT12" s="1">
-        <v>19.947770</v>
+        <v>19.947769999999998</v>
       </c>
       <c r="BU12" s="1">
-        <v>1618.030000</v>
+        <v>1618.03</v>
       </c>
       <c r="BV12" s="1">
-        <v>-823.339000</v>
+        <v>-823.33900000000006</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>71823.180756</v>
+        <v>71823.180756000002</v>
       </c>
       <c r="BY12" s="1">
-        <v>19.950884</v>
+        <v>19.950883999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1770.600000</v>
+        <v>1770.6</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1092.410000</v>
+        <v>-1092.4100000000001</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>71835.515731</v>
+        <v>71835.515731000007</v>
       </c>
       <c r="CD12" s="1">
-        <v>19.954310</v>
+        <v>19.95431</v>
       </c>
       <c r="CE12" s="1">
-        <v>2186.720000</v>
+        <v>2186.7199999999998</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1741.520000</v>
+        <v>-1741.52</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>71664.268982</v>
+        <v>71664.268981999994</v>
       </c>
       <c r="B13" s="1">
         <v>19.906741</v>
       </c>
       <c r="C13" s="1">
-        <v>1149.270000</v>
+        <v>1149.27</v>
       </c>
       <c r="D13" s="1">
-        <v>-251.620000</v>
+        <v>-251.62</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>71674.690920</v>
+        <v>71674.690919999994</v>
       </c>
       <c r="G13" s="1">
-        <v>19.909636</v>
+        <v>19.909635999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>1170.230000</v>
+        <v>1170.23</v>
       </c>
       <c r="I13" s="1">
-        <v>-211.860000</v>
+        <v>-211.86</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>71684.943227</v>
+        <v>71684.943226999996</v>
       </c>
       <c r="L13" s="1">
-        <v>19.912484</v>
+        <v>19.912483999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>1197.210000</v>
+        <v>1197.21</v>
       </c>
       <c r="N13" s="1">
-        <v>-148.723000</v>
+        <v>-148.72300000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>71694.864701</v>
+        <v>71694.864700999999</v>
       </c>
       <c r="Q13" s="1">
-        <v>19.915240</v>
+        <v>19.915240000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>1205.190000</v>
+        <v>1205.19</v>
       </c>
       <c r="S13" s="1">
-        <v>-127.477000</v>
+        <v>-127.477</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>71704.943936</v>
+        <v>71704.943935999996</v>
       </c>
       <c r="V13" s="1">
-        <v>19.918040</v>
+        <v>19.918040000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>1212.780000</v>
+        <v>1212.78</v>
       </c>
       <c r="X13" s="1">
-        <v>-107.302000</v>
+        <v>-107.30200000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>71715.177860</v>
+        <v>71715.177859999996</v>
       </c>
       <c r="AA13" s="1">
         <v>19.920883</v>
       </c>
       <c r="AB13" s="1">
-        <v>1220.840000</v>
+        <v>1220.8399999999999</v>
       </c>
       <c r="AC13" s="1">
-        <v>-90.744800</v>
+        <v>-90.744799999999998</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>71725.396436</v>
+        <v>71725.396435999995</v>
       </c>
       <c r="AF13" s="1">
         <v>19.923721</v>
       </c>
       <c r="AG13" s="1">
-        <v>1225.750000</v>
+        <v>1225.75</v>
       </c>
       <c r="AH13" s="1">
-        <v>-86.405600</v>
+        <v>-86.405600000000007</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>71736.003879</v>
+        <v>71736.003878999996</v>
       </c>
       <c r="AK13" s="1">
-        <v>19.926668</v>
+        <v>19.926667999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>1233.110000</v>
+        <v>1233.1099999999999</v>
       </c>
       <c r="AM13" s="1">
-        <v>-89.830400</v>
+        <v>-89.830399999999997</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>71746.678808</v>
+        <v>71746.678807999997</v>
       </c>
       <c r="AP13" s="1">
-        <v>19.929633</v>
+        <v>19.929632999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1241.210000</v>
+        <v>1241.21</v>
       </c>
       <c r="AR13" s="1">
-        <v>-101.737000</v>
+        <v>-101.73699999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>71757.664171</v>
+        <v>71757.664170999997</v>
       </c>
       <c r="AU13" s="1">
-        <v>19.932684</v>
+        <v>19.932683999999998</v>
       </c>
       <c r="AV13" s="1">
-        <v>1251.290000</v>
+        <v>1251.29</v>
       </c>
       <c r="AW13" s="1">
-        <v>-121.017000</v>
+        <v>-121.017</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>71768.759675</v>
+        <v>71768.759674999994</v>
       </c>
       <c r="AZ13" s="1">
-        <v>19.935767</v>
+        <v>19.935766999999998</v>
       </c>
       <c r="BA13" s="1">
-        <v>1259.800000</v>
+        <v>1259.8</v>
       </c>
       <c r="BB13" s="1">
-        <v>-138.423000</v>
+        <v>-138.423</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>71779.701917</v>
+        <v>71779.701916999999</v>
       </c>
       <c r="BE13" s="1">
         <v>19.938806</v>
       </c>
       <c r="BF13" s="1">
-        <v>1300.240000</v>
+        <v>1300.24</v>
       </c>
       <c r="BG13" s="1">
-        <v>-220.140000</v>
+        <v>-220.14</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>71790.563310</v>
+        <v>71790.563309999998</v>
       </c>
       <c r="BJ13" s="1">
-        <v>19.941823</v>
+        <v>19.941822999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1370.340000</v>
+        <v>1370.34</v>
       </c>
       <c r="BL13" s="1">
-        <v>-355.861000</v>
+        <v>-355.86099999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>71801.601279</v>
+        <v>71801.601278999995</v>
       </c>
       <c r="BO13" s="1">
         <v>19.944889</v>
       </c>
       <c r="BP13" s="1">
-        <v>1485.480000</v>
+        <v>1485.48</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-576.091000</v>
+        <v>-576.09100000000001</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>71812.380340</v>
+        <v>71812.380340000003</v>
       </c>
       <c r="BT13" s="1">
-        <v>19.947883</v>
+        <v>19.947883000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1617.910000</v>
+        <v>1617.91</v>
       </c>
       <c r="BV13" s="1">
-        <v>-823.415000</v>
+        <v>-823.41499999999996</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>71823.590915</v>
+        <v>71823.590914999993</v>
       </c>
       <c r="BY13" s="1">
-        <v>19.950997</v>
+        <v>19.950997000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1770.650000</v>
+        <v>1770.65</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1092.260000</v>
+        <v>-1092.26</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>71836.033555</v>
+        <v>71836.033555000002</v>
       </c>
       <c r="CD13" s="1">
-        <v>19.954454</v>
+        <v>19.954453999999998</v>
       </c>
       <c r="CE13" s="1">
-        <v>2186.290000</v>
+        <v>2186.29</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1741.040000</v>
+        <v>-1741.04</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>71664.629606</v>
+        <v>71664.629606000002</v>
       </c>
       <c r="B14" s="1">
-        <v>19.906842</v>
+        <v>19.906842000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>1149.180000</v>
+        <v>1149.18</v>
       </c>
       <c r="D14" s="1">
-        <v>-251.665000</v>
+        <v>-251.66499999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>71675.067912</v>
+        <v>71675.067911999999</v>
       </c>
       <c r="G14" s="1">
         <v>19.909741</v>
       </c>
       <c r="H14" s="1">
-        <v>1169.430000</v>
+        <v>1169.43</v>
       </c>
       <c r="I14" s="1">
-        <v>-211.531000</v>
+        <v>-211.53100000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>71685.288938</v>
+        <v>71685.288937999998</v>
       </c>
       <c r="L14" s="1">
-        <v>19.912580</v>
+        <v>19.912579999999998</v>
       </c>
       <c r="M14" s="1">
-        <v>1197.220000</v>
+        <v>1197.22</v>
       </c>
       <c r="N14" s="1">
-        <v>-148.731000</v>
+        <v>-148.73099999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>71695.212893</v>
+        <v>71695.212893000004</v>
       </c>
       <c r="Q14" s="1">
-        <v>19.915337</v>
+        <v>19.915337000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>1205.220000</v>
+        <v>1205.22</v>
       </c>
       <c r="S14" s="1">
-        <v>-127.416000</v>
+        <v>-127.416</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>71705.286639</v>
+        <v>71705.286638999998</v>
       </c>
       <c r="V14" s="1">
-        <v>19.918135</v>
+        <v>19.918134999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>1212.770000</v>
+        <v>1212.77</v>
       </c>
       <c r="X14" s="1">
-        <v>-107.396000</v>
+        <v>-107.396</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>71715.616819</v>
+        <v>71715.616819000003</v>
       </c>
       <c r="AA14" s="1">
-        <v>19.921005</v>
+        <v>19.921005000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>1220.720000</v>
+        <v>1220.72</v>
       </c>
       <c r="AC14" s="1">
-        <v>-90.725000</v>
+        <v>-90.724999999999994</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>71725.832916</v>
+        <v>71725.832915999999</v>
       </c>
       <c r="AF14" s="1">
         <v>19.923842</v>
       </c>
       <c r="AG14" s="1">
-        <v>1225.760000</v>
+        <v>1225.76</v>
       </c>
       <c r="AH14" s="1">
-        <v>-86.440000</v>
+        <v>-86.44</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>71736.278695</v>
+        <v>71736.278695000001</v>
       </c>
       <c r="AK14" s="1">
-        <v>19.926744</v>
+        <v>19.926743999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>1233.120000</v>
+        <v>1233.1199999999999</v>
       </c>
       <c r="AM14" s="1">
-        <v>-89.836700</v>
+        <v>-89.836699999999993</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>71747.039864</v>
+        <v>71747.039864000006</v>
       </c>
       <c r="AP14" s="1">
-        <v>19.929733</v>
+        <v>19.929732999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1241.190000</v>
+        <v>1241.19</v>
       </c>
       <c r="AR14" s="1">
-        <v>-101.766000</v>
+        <v>-101.76600000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>71758.027739</v>
+        <v>71758.027738999997</v>
       </c>
       <c r="AU14" s="1">
-        <v>19.932785</v>
+        <v>19.932784999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>1251.300000</v>
+        <v>1251.3</v>
       </c>
       <c r="AW14" s="1">
-        <v>-121.026000</v>
+        <v>-121.026</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>71769.118056</v>
+        <v>71769.118056000007</v>
       </c>
       <c r="AZ14" s="1">
-        <v>19.935866</v>
+        <v>19.935866000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>1259.810000</v>
+        <v>1259.81</v>
       </c>
       <c r="BB14" s="1">
-        <v>-138.472000</v>
+        <v>-138.47200000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>71780.423100</v>
+        <v>71780.4231</v>
       </c>
       <c r="BE14" s="1">
-        <v>19.939006</v>
+        <v>19.939005999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1300.240000</v>
+        <v>1300.24</v>
       </c>
       <c r="BG14" s="1">
-        <v>-220.178000</v>
+        <v>-220.178</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>71791.336575</v>
+        <v>71791.336574999994</v>
       </c>
       <c r="BJ14" s="1">
         <v>19.942038</v>
       </c>
       <c r="BK14" s="1">
-        <v>1370.360000</v>
+        <v>1370.36</v>
       </c>
       <c r="BL14" s="1">
-        <v>-355.894000</v>
+        <v>-355.89400000000001</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>71801.986176</v>
+        <v>71801.986176000006</v>
       </c>
       <c r="BO14" s="1">
         <v>19.944996</v>
       </c>
       <c r="BP14" s="1">
-        <v>1485.480000</v>
+        <v>1485.48</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-576.091000</v>
+        <v>-576.09100000000001</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>71812.808385</v>
+        <v>71812.808384999997</v>
       </c>
       <c r="BT14" s="1">
-        <v>19.948002</v>
+        <v>19.948001999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1617.740000</v>
+        <v>1617.74</v>
       </c>
       <c r="BV14" s="1">
-        <v>-823.539000</v>
+        <v>-823.53899999999999</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>71824.038802</v>
+        <v>71824.038801999995</v>
       </c>
       <c r="BY14" s="1">
-        <v>19.951122</v>
+        <v>19.951122000000002</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1770.730000</v>
+        <v>1770.73</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1092.360000</v>
+        <v>-1092.3599999999999</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>71836.907041</v>
+        <v>71836.907040999999</v>
       </c>
       <c r="CD14" s="1">
-        <v>19.954696</v>
+        <v>19.954695999999998</v>
       </c>
       <c r="CE14" s="1">
-        <v>2185.850000</v>
+        <v>2185.85</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1739.670000</v>
+        <v>-1739.67</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>71664.971316</v>
+        <v>71664.971315999996</v>
       </c>
       <c r="B15" s="1">
-        <v>19.906936</v>
+        <v>19.906936000000002</v>
       </c>
       <c r="C15" s="1">
-        <v>1149.200000</v>
+        <v>1149.2</v>
       </c>
       <c r="D15" s="1">
-        <v>-251.434000</v>
+        <v>-251.434</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>71675.414582</v>
+        <v>71675.414581999998</v>
       </c>
       <c r="G15" s="1">
         <v>19.909837</v>
       </c>
       <c r="H15" s="1">
-        <v>1170.660000</v>
+        <v>1170.6600000000001</v>
       </c>
       <c r="I15" s="1">
-        <v>-211.656000</v>
+        <v>-211.65600000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>71685.633161</v>
+        <v>71685.633161000005</v>
       </c>
       <c r="L15" s="1">
-        <v>19.912676</v>
+        <v>19.912676000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>1197.260000</v>
+        <v>1197.26</v>
       </c>
       <c r="N15" s="1">
-        <v>-148.515000</v>
+        <v>-148.51499999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>71695.643918</v>
+        <v>71695.643918000002</v>
       </c>
       <c r="Q15" s="1">
         <v>19.915457</v>
       </c>
       <c r="R15" s="1">
-        <v>1205.220000</v>
+        <v>1205.22</v>
       </c>
       <c r="S15" s="1">
-        <v>-127.417000</v>
+        <v>-127.417</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>71705.706751</v>
+        <v>71705.706751000005</v>
       </c>
       <c r="V15" s="1">
-        <v>19.918252</v>
+        <v>19.918251999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>1212.860000</v>
+        <v>1212.8599999999999</v>
       </c>
       <c r="X15" s="1">
-        <v>-107.340000</v>
+        <v>-107.34</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>71715.877714</v>
+        <v>71715.877714000002</v>
       </c>
       <c r="AA15" s="1">
         <v>19.921077</v>
       </c>
       <c r="AB15" s="1">
-        <v>1220.920000</v>
+        <v>1220.92</v>
       </c>
       <c r="AC15" s="1">
-        <v>-90.810600</v>
+        <v>-90.810599999999994</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>71726.099268</v>
+        <v>71726.099268000005</v>
       </c>
       <c r="AF15" s="1">
-        <v>19.923916</v>
+        <v>19.923915999999998</v>
       </c>
       <c r="AG15" s="1">
-        <v>1225.790000</v>
+        <v>1225.79</v>
       </c>
       <c r="AH15" s="1">
-        <v>-86.424500</v>
+        <v>-86.424499999999995</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>71736.627351</v>
+        <v>71736.627351000003</v>
       </c>
       <c r="AK15" s="1">
         <v>19.926841</v>
       </c>
       <c r="AL15" s="1">
-        <v>1233.100000</v>
+        <v>1233.0999999999999</v>
       </c>
       <c r="AM15" s="1">
-        <v>-89.860700</v>
+        <v>-89.860699999999994</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>71747.401484</v>
+        <v>71747.401484000002</v>
       </c>
       <c r="AP15" s="1">
         <v>19.929834</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1241.200000</v>
+        <v>1241.2</v>
       </c>
       <c r="AR15" s="1">
-        <v>-101.735000</v>
+        <v>-101.735</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>71758.392329</v>
+        <v>71758.392328999995</v>
       </c>
       <c r="AU15" s="1">
-        <v>19.932887</v>
+        <v>19.932887000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>1251.270000</v>
+        <v>1251.27</v>
       </c>
       <c r="AW15" s="1">
-        <v>-121.008000</v>
+        <v>-121.008</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>71769.835994</v>
+        <v>71769.835993999994</v>
       </c>
       <c r="AZ15" s="1">
         <v>19.936066</v>
       </c>
       <c r="BA15" s="1">
-        <v>1259.790000</v>
+        <v>1259.79</v>
       </c>
       <c r="BB15" s="1">
-        <v>-138.465000</v>
+        <v>-138.465</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>71780.783195</v>
+        <v>71780.783194999996</v>
       </c>
       <c r="BE15" s="1">
-        <v>19.939106</v>
+        <v>19.939105999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1300.230000</v>
+        <v>1300.23</v>
       </c>
       <c r="BG15" s="1">
-        <v>-220.152000</v>
+        <v>-220.15199999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
         <v>71791.717997</v>
       </c>
       <c r="BJ15" s="1">
-        <v>19.942144</v>
+        <v>19.942143999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1370.350000</v>
+        <v>1370.35</v>
       </c>
       <c r="BL15" s="1">
-        <v>-355.881000</v>
+        <v>-355.88099999999997</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>71802.406287</v>
+        <v>71802.406287000005</v>
       </c>
       <c r="BO15" s="1">
-        <v>19.945113</v>
+        <v>19.945112999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1485.460000</v>
+        <v>1485.46</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-576.100000</v>
+        <v>-576.1</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>71813.545936</v>
+        <v>71813.545935999995</v>
       </c>
       <c r="BT15" s="1">
         <v>19.948207</v>
       </c>
       <c r="BU15" s="1">
-        <v>1617.700000</v>
+        <v>1617.7</v>
       </c>
       <c r="BV15" s="1">
-        <v>-823.620000</v>
+        <v>-823.62</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>71824.778337</v>
+        <v>71824.778336999996</v>
       </c>
       <c r="BY15" s="1">
-        <v>19.951327</v>
+        <v>19.951326999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1770.670000</v>
+        <v>1770.67</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1092.120000</v>
+        <v>-1092.1199999999999</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>71837.114337</v>
+        <v>71837.114337000006</v>
       </c>
       <c r="CD15" s="1">
-        <v>19.954754</v>
+        <v>19.954754000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>2186.650000</v>
+        <v>2186.65</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1741.480000</v>
+        <v>-1741.48</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>71665.313556</v>
+        <v>71665.313555999994</v>
       </c>
       <c r="B16" s="1">
-        <v>19.907032</v>
+        <v>19.907032000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>1149.160000</v>
+        <v>1149.1600000000001</v>
       </c>
       <c r="D16" s="1">
-        <v>-251.807000</v>
+        <v>-251.80699999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>71675.766247</v>
+        <v>71675.766247000007</v>
       </c>
       <c r="G16" s="1">
-        <v>19.909935</v>
+        <v>19.909935000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>1169.650000</v>
+        <v>1169.6500000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-212.089000</v>
+        <v>-212.089</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>71686.063688</v>
+        <v>71686.063687999995</v>
       </c>
       <c r="L16" s="1">
-        <v>19.912795</v>
+        <v>19.912794999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>1197.420000</v>
+        <v>1197.42</v>
       </c>
       <c r="N16" s="1">
-        <v>-148.787000</v>
+        <v>-148.78700000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>71695.912780</v>
+        <v>71695.912779999999</v>
       </c>
       <c r="Q16" s="1">
-        <v>19.915531</v>
+        <v>19.915531000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>1205.300000</v>
+        <v>1205.3</v>
       </c>
       <c r="S16" s="1">
-        <v>-127.452000</v>
+        <v>-127.452</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>71705.983518</v>
+        <v>71705.983517999994</v>
       </c>
       <c r="V16" s="1">
         <v>19.918329</v>
       </c>
       <c r="W16" s="1">
-        <v>1212.930000</v>
+        <v>1212.93</v>
       </c>
       <c r="X16" s="1">
-        <v>-107.249000</v>
+        <v>-107.249</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>71716.226897</v>
       </c>
       <c r="AA16" s="1">
-        <v>19.921174</v>
+        <v>19.921174000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>1220.720000</v>
+        <v>1220.72</v>
       </c>
       <c r="AC16" s="1">
-        <v>-90.634200</v>
+        <v>-90.634200000000007</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>71726.459896</v>
       </c>
       <c r="AF16" s="1">
-        <v>19.924017</v>
+        <v>19.924016999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>1225.760000</v>
+        <v>1225.76</v>
       </c>
       <c r="AH16" s="1">
-        <v>-86.433100</v>
+        <v>-86.433099999999996</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>71736.972566</v>
+        <v>71736.972565999997</v>
       </c>
       <c r="AK16" s="1">
-        <v>19.926937</v>
+        <v>19.926936999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>1233.120000</v>
+        <v>1233.1199999999999</v>
       </c>
       <c r="AM16" s="1">
-        <v>-89.833200</v>
+        <v>-89.833200000000005</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>71748.126102</v>
+        <v>71748.126101999995</v>
       </c>
       <c r="AP16" s="1">
         <v>19.930035</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1241.200000</v>
+        <v>1241.2</v>
       </c>
       <c r="AR16" s="1">
-        <v>-101.733000</v>
+        <v>-101.733</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>71759.126873</v>
+        <v>71759.126873000001</v>
       </c>
       <c r="AU16" s="1">
-        <v>19.933091</v>
+        <v>19.933091000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>1251.270000</v>
+        <v>1251.27</v>
       </c>
       <c r="AW16" s="1">
-        <v>-121.023000</v>
+        <v>-121.023</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>71770.195099</v>
+        <v>71770.195099000004</v>
       </c>
       <c r="AZ16" s="1">
-        <v>19.936165</v>
+        <v>19.936164999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>1259.770000</v>
+        <v>1259.77</v>
       </c>
       <c r="BB16" s="1">
-        <v>-138.430000</v>
+        <v>-138.43</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>71781.143788</v>
+        <v>71781.143788000001</v>
       </c>
       <c r="BE16" s="1">
         <v>19.939207</v>
       </c>
       <c r="BF16" s="1">
-        <v>1300.220000</v>
+        <v>1300.22</v>
       </c>
       <c r="BG16" s="1">
-        <v>-220.158000</v>
+        <v>-220.15799999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>71792.087516</v>
       </c>
       <c r="BJ16" s="1">
-        <v>19.942247</v>
+        <v>19.942246999999998</v>
       </c>
       <c r="BK16" s="1">
-        <v>1370.320000</v>
+        <v>1370.32</v>
       </c>
       <c r="BL16" s="1">
-        <v>-355.859000</v>
+        <v>-355.85899999999998</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>71803.124990</v>
+        <v>71803.124989999997</v>
       </c>
       <c r="BO16" s="1">
-        <v>19.945312</v>
+        <v>19.945312000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1485.470000</v>
+        <v>1485.47</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-576.083000</v>
+        <v>-576.08299999999997</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>71813.679856</v>
+        <v>71813.679856000002</v>
       </c>
       <c r="BT16" s="1">
-        <v>19.948244</v>
+        <v>19.948243999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>1617.650000</v>
+        <v>1617.65</v>
       </c>
       <c r="BV16" s="1">
-        <v>-823.798000</v>
+        <v>-823.798</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>71824.906801</v>
+        <v>71824.906801000005</v>
       </c>
       <c r="BY16" s="1">
-        <v>19.951363</v>
+        <v>19.951363000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1770.630000</v>
+        <v>1770.63</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1092.410000</v>
+        <v>-1092.4100000000001</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>71837.632658</v>
+        <v>71837.632658000002</v>
       </c>
       <c r="CD16" s="1">
         <v>19.954898</v>
       </c>
       <c r="CE16" s="1">
-        <v>2186.310000</v>
+        <v>2186.31</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1740.940000</v>
+        <v>-1740.94</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>71665.732182</v>
+        <v>71665.732182000007</v>
       </c>
       <c r="B17" s="1">
-        <v>19.907148</v>
+        <v>19.907147999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>1149.320000</v>
+        <v>1149.32</v>
       </c>
       <c r="D17" s="1">
-        <v>-251.761000</v>
+        <v>-251.761</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>71676.193798</v>
+        <v>71676.193797999993</v>
       </c>
       <c r="G17" s="1">
-        <v>19.910054</v>
+        <v>19.910053999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>1170.300000</v>
+        <v>1170.3</v>
       </c>
       <c r="I17" s="1">
-        <v>-211.585000</v>
+        <v>-211.58500000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>71686.341449</v>
       </c>
       <c r="L17" s="1">
-        <v>19.912873</v>
+        <v>19.912873000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>1197.330000</v>
+        <v>1197.33</v>
       </c>
       <c r="N17" s="1">
-        <v>-148.675000</v>
+        <v>-148.67500000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>71696.258955</v>
+        <v>71696.258954999998</v>
       </c>
       <c r="Q17" s="1">
-        <v>19.915627</v>
+        <v>19.915627000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>1205.260000</v>
+        <v>1205.26</v>
       </c>
       <c r="S17" s="1">
-        <v>-127.535000</v>
+        <v>-127.535</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>71706.327282</v>
+        <v>71706.327281999998</v>
       </c>
       <c r="V17" s="1">
-        <v>19.918424</v>
+        <v>19.918424000000002</v>
       </c>
       <c r="W17" s="1">
-        <v>1212.810000</v>
+        <v>1212.81</v>
       </c>
       <c r="X17" s="1">
-        <v>-107.257000</v>
+        <v>-107.25700000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>71716.578560</v>
+        <v>71716.578559999994</v>
       </c>
       <c r="AA17" s="1">
-        <v>19.921272</v>
+        <v>19.921271999999998</v>
       </c>
       <c r="AB17" s="1">
-        <v>1220.830000</v>
+        <v>1220.83</v>
       </c>
       <c r="AC17" s="1">
-        <v>-90.739800</v>
+        <v>-90.739800000000002</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>71727.141363</v>
+        <v>71727.141363000002</v>
       </c>
       <c r="AF17" s="1">
-        <v>19.924206</v>
+        <v>19.924206000000002</v>
       </c>
       <c r="AG17" s="1">
-        <v>1225.750000</v>
+        <v>1225.75</v>
       </c>
       <c r="AH17" s="1">
-        <v>-86.430000</v>
+        <v>-86.43</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>71737.673909</v>
+        <v>71737.673909000005</v>
       </c>
       <c r="AK17" s="1">
         <v>19.927132</v>
       </c>
       <c r="AL17" s="1">
-        <v>1233.110000</v>
+        <v>1233.1099999999999</v>
       </c>
       <c r="AM17" s="1">
-        <v>-89.847400</v>
+        <v>-89.847399999999993</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>71748.504550</v>
+        <v>71748.504549999998</v>
       </c>
       <c r="AP17" s="1">
-        <v>19.930140</v>
+        <v>19.930140000000002</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1241.190000</v>
+        <v>1241.19</v>
       </c>
       <c r="AR17" s="1">
-        <v>-101.728000</v>
+        <v>-101.72799999999999</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>71759.504824</v>
+        <v>71759.504824000003</v>
       </c>
       <c r="AU17" s="1">
-        <v>19.933196</v>
+        <v>19.933195999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>1251.300000</v>
+        <v>1251.3</v>
       </c>
       <c r="AW17" s="1">
-        <v>-121.027000</v>
+        <v>-121.027</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>71770.554203</v>
+        <v>71770.554203000007</v>
       </c>
       <c r="AZ17" s="1">
-        <v>19.936265</v>
+        <v>19.936264999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1259.780000</v>
+        <v>1259.78</v>
       </c>
       <c r="BB17" s="1">
-        <v>-138.447000</v>
+        <v>-138.447</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>71781.826320</v>
+        <v>71781.826319999993</v>
       </c>
       <c r="BE17" s="1">
-        <v>19.939396</v>
+        <v>19.939395999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1300.220000</v>
+        <v>1300.22</v>
       </c>
       <c r="BG17" s="1">
-        <v>-220.153000</v>
+        <v>-220.15299999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>71792.546813</v>
+        <v>71792.546812999994</v>
       </c>
       <c r="BJ17" s="1">
-        <v>19.942374</v>
+        <v>19.942374000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1370.340000</v>
+        <v>1370.34</v>
       </c>
       <c r="BL17" s="1">
-        <v>-355.848000</v>
+        <v>-355.84800000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>71803.241055</v>
+        <v>71803.241055000006</v>
       </c>
       <c r="BO17" s="1">
         <v>19.945345</v>
       </c>
       <c r="BP17" s="1">
-        <v>1485.490000</v>
+        <v>1485.49</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-576.122000</v>
+        <v>-576.12199999999996</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>71814.094549</v>
+        <v>71814.094549000001</v>
       </c>
       <c r="BT17" s="1">
-        <v>19.948360</v>
+        <v>19.948360000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>1617.710000</v>
+        <v>1617.71</v>
       </c>
       <c r="BV17" s="1">
-        <v>-823.879000</v>
+        <v>-823.87900000000002</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>71825.331385</v>
+        <v>71825.331384999998</v>
       </c>
       <c r="BY17" s="1">
-        <v>19.951481</v>
+        <v>19.951481000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1770.770000</v>
+        <v>1770.77</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1092.330000</v>
+        <v>-1092.33</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>71838.184207</v>
+        <v>71838.184206999998</v>
       </c>
       <c r="CD17" s="1">
-        <v>19.955051</v>
+        <v>19.955051000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>2186.020000</v>
+        <v>2186.02</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1739.930000</v>
+        <v>-1739.93</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>71666.011923</v>
+        <v>71666.011922999998</v>
       </c>
       <c r="B18" s="1">
-        <v>19.907226</v>
+        <v>19.907226000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>1149.160000</v>
+        <v>1149.1600000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>-251.534000</v>
+        <v>-251.53399999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>71676.470069</v>
+        <v>71676.470069000003</v>
       </c>
       <c r="G18" s="1">
         <v>19.910131</v>
       </c>
       <c r="H18" s="1">
-        <v>1170.440000</v>
+        <v>1170.44</v>
       </c>
       <c r="I18" s="1">
-        <v>-211.626000</v>
+        <v>-211.626</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>71686.685703</v>
+        <v>71686.685702999996</v>
       </c>
       <c r="L18" s="1">
-        <v>19.912968</v>
+        <v>19.912967999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>1197.280000</v>
+        <v>1197.28</v>
       </c>
       <c r="N18" s="1">
-        <v>-148.646000</v>
+        <v>-148.64599999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>71696.611116</v>
       </c>
       <c r="Q18" s="1">
-        <v>19.915725</v>
+        <v>19.915724999999998</v>
       </c>
       <c r="R18" s="1">
-        <v>1205.170000</v>
+        <v>1205.17</v>
       </c>
       <c r="S18" s="1">
-        <v>-127.527000</v>
+        <v>-127.527</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>71706.673454</v>
+        <v>71706.673454000003</v>
       </c>
       <c r="V18" s="1">
-        <v>19.918520</v>
+        <v>19.918520000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>1212.800000</v>
+        <v>1212.8</v>
       </c>
       <c r="X18" s="1">
-        <v>-107.256000</v>
+        <v>-107.256</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>71717.272720</v>
+        <v>71717.272719999994</v>
       </c>
       <c r="AA18" s="1">
-        <v>19.921465</v>
+        <v>19.921465000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>1220.790000</v>
+        <v>1220.79</v>
       </c>
       <c r="AC18" s="1">
-        <v>-90.786600</v>
+        <v>-90.786600000000007</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>71727.491043</v>
+        <v>71727.491043000002</v>
       </c>
       <c r="AF18" s="1">
-        <v>19.924303</v>
+        <v>19.924302999999998</v>
       </c>
       <c r="AG18" s="1">
-        <v>1225.780000</v>
+        <v>1225.78</v>
       </c>
       <c r="AH18" s="1">
-        <v>-86.426300</v>
+        <v>-86.426299999999998</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>71738.022630</v>
+        <v>71738.022630000007</v>
       </c>
       <c r="AK18" s="1">
-        <v>19.927229</v>
+        <v>19.927229000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>1233.110000</v>
+        <v>1233.1099999999999</v>
       </c>
       <c r="AM18" s="1">
-        <v>-89.843000</v>
+        <v>-89.843000000000004</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>71748.865638</v>
+        <v>71748.865638000003</v>
       </c>
       <c r="AP18" s="1">
-        <v>19.930240</v>
+        <v>19.930240000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1241.170000</v>
+        <v>1241.17</v>
       </c>
       <c r="AR18" s="1">
-        <v>-101.713000</v>
+        <v>-101.71299999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>71759.871404</v>
+        <v>71759.871404000005</v>
       </c>
       <c r="AU18" s="1">
-        <v>19.933298</v>
+        <v>19.933298000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>1251.280000</v>
+        <v>1251.28</v>
       </c>
       <c r="AW18" s="1">
-        <v>-121.017000</v>
+        <v>-121.017</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>71771.235705</v>
+        <v>71771.235704999999</v>
       </c>
       <c r="AZ18" s="1">
-        <v>19.936454</v>
+        <v>19.936454000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1259.790000</v>
+        <v>1259.79</v>
       </c>
       <c r="BB18" s="1">
-        <v>-138.449000</v>
+        <v>-138.44900000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>71782.249388</v>
+        <v>71782.249387999997</v>
       </c>
       <c r="BE18" s="1">
-        <v>19.939514</v>
+        <v>19.939513999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1300.210000</v>
+        <v>1300.21</v>
       </c>
       <c r="BG18" s="1">
-        <v>-220.152000</v>
+        <v>-220.15199999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>71792.864781</v>
+        <v>71792.864780999997</v>
       </c>
       <c r="BJ18" s="1">
-        <v>19.942462</v>
+        <v>19.942461999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1370.360000</v>
+        <v>1370.36</v>
       </c>
       <c r="BL18" s="1">
-        <v>-355.856000</v>
+        <v>-355.85599999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>71803.647774</v>
+        <v>71803.647773999997</v>
       </c>
       <c r="BO18" s="1">
-        <v>19.945458</v>
+        <v>19.945457999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1485.510000</v>
+        <v>1485.51</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-576.078000</v>
+        <v>-576.07799999999997</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>71814.521105</v>
+        <v>71814.521105000007</v>
       </c>
       <c r="BT18" s="1">
-        <v>19.948478</v>
+        <v>19.948478000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>1617.680000</v>
+        <v>1617.68</v>
       </c>
       <c r="BV18" s="1">
-        <v>-823.929000</v>
+        <v>-823.92899999999997</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>71825.858624</v>
       </c>
       <c r="BY18" s="1">
-        <v>19.951627</v>
+        <v>19.951626999999998</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1770.700000</v>
+        <v>1770.7</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1092.140000</v>
+        <v>-1092.1400000000001</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>71838.711812</v>
+        <v>71838.711811999994</v>
       </c>
       <c r="CD18" s="1">
-        <v>19.955198</v>
+        <v>19.955197999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>2186.770000</v>
+        <v>2186.77</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1741.520000</v>
+        <v>-1741.52</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>71666.349699</v>
+        <v>71666.349698999999</v>
       </c>
       <c r="B19" s="1">
-        <v>19.907319</v>
+        <v>19.907319000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>1149.340000</v>
+        <v>1149.3399999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>-251.414000</v>
+        <v>-251.41399999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>71676.814313</v>
+        <v>71676.814312999995</v>
       </c>
       <c r="G19" s="1">
-        <v>19.910226</v>
+        <v>19.910226000000002</v>
       </c>
       <c r="H19" s="1">
-        <v>1169.670000</v>
+        <v>1169.67</v>
       </c>
       <c r="I19" s="1">
-        <v>-212.055000</v>
+        <v>-212.05500000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>71687.031879</v>
+        <v>71687.031879000002</v>
       </c>
       <c r="L19" s="1">
-        <v>19.913064</v>
+        <v>19.913063999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>1197.290000</v>
+        <v>1197.29</v>
       </c>
       <c r="N19" s="1">
-        <v>-148.813000</v>
+        <v>-148.81299999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>71697.305514</v>
+        <v>71697.305514000007</v>
       </c>
       <c r="Q19" s="1">
-        <v>19.915918</v>
+        <v>19.915918000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>1205.210000</v>
+        <v>1205.21</v>
       </c>
       <c r="S19" s="1">
-        <v>-127.515000</v>
+        <v>-127.515</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>71707.370364</v>
+        <v>71707.370364000002</v>
       </c>
       <c r="V19" s="1">
-        <v>19.918714</v>
+        <v>19.918714000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>1212.700000</v>
+        <v>1212.7</v>
       </c>
       <c r="X19" s="1">
-        <v>-107.304000</v>
+        <v>-107.304</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>71717.622761</v>
+        <v>71717.622761000006</v>
       </c>
       <c r="AA19" s="1">
-        <v>19.921562</v>
+        <v>19.921562000000002</v>
       </c>
       <c r="AB19" s="1">
-        <v>1220.850000</v>
+        <v>1220.8499999999999</v>
       </c>
       <c r="AC19" s="1">
-        <v>-90.853700</v>
+        <v>-90.853700000000003</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>71727.835761</v>
+        <v>71727.835760999995</v>
       </c>
       <c r="AF19" s="1">
-        <v>19.924399</v>
+        <v>19.924399000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>1225.810000</v>
+        <v>1225.81</v>
       </c>
       <c r="AH19" s="1">
-        <v>-86.281500</v>
+        <v>-86.281499999999994</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>71738.367317</v>
+        <v>71738.367316999997</v>
       </c>
       <c r="AK19" s="1">
-        <v>19.927324</v>
+        <v>19.927323999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>1233.120000</v>
+        <v>1233.1199999999999</v>
       </c>
       <c r="AM19" s="1">
-        <v>-89.818200</v>
+        <v>-89.818200000000004</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>71749.543173</v>
+        <v>71749.543172999998</v>
       </c>
       <c r="AP19" s="1">
         <v>19.930429</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1241.200000</v>
+        <v>1241.2</v>
       </c>
       <c r="AR19" s="1">
-        <v>-101.728000</v>
+        <v>-101.72799999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>71760.600486</v>
+        <v>71760.600485999996</v>
       </c>
       <c r="AU19" s="1">
-        <v>19.933500</v>
+        <v>19.933499999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>1251.260000</v>
+        <v>1251.26</v>
       </c>
       <c r="AW19" s="1">
-        <v>-121.032000</v>
+        <v>-121.032</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>71771.631015</v>
+        <v>71771.631015000006</v>
       </c>
       <c r="AZ19" s="1">
-        <v>19.936564</v>
+        <v>19.936564000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1259.810000</v>
+        <v>1259.81</v>
       </c>
       <c r="BB19" s="1">
-        <v>-138.455000</v>
+        <v>-138.45500000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>71782.640714</v>
+        <v>71782.640713999994</v>
       </c>
       <c r="BE19" s="1">
         <v>19.939622</v>
       </c>
       <c r="BF19" s="1">
-        <v>1300.210000</v>
+        <v>1300.21</v>
       </c>
       <c r="BG19" s="1">
-        <v>-220.155000</v>
+        <v>-220.155</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>71793.242203</v>
+        <v>71793.242203000002</v>
       </c>
       <c r="BJ19" s="1">
         <v>19.942567</v>
       </c>
       <c r="BK19" s="1">
-        <v>1370.360000</v>
+        <v>1370.36</v>
       </c>
       <c r="BL19" s="1">
-        <v>-355.878000</v>
+        <v>-355.87799999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>71804.049075</v>
+        <v>71804.049075000003</v>
       </c>
       <c r="BO19" s="1">
-        <v>19.945569</v>
+        <v>19.945568999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1485.470000</v>
+        <v>1485.47</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-576.112000</v>
+        <v>-576.11199999999997</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>71814.955070</v>
+        <v>71814.955069999996</v>
       </c>
       <c r="BT19" s="1">
-        <v>19.948599</v>
+        <v>19.948599000000002</v>
       </c>
       <c r="BU19" s="1">
-        <v>1617.710000</v>
+        <v>1617.71</v>
       </c>
       <c r="BV19" s="1">
-        <v>-823.995000</v>
+        <v>-823.995</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>71826.193424</v>
+        <v>71826.193423999997</v>
       </c>
       <c r="BY19" s="1">
-        <v>19.951720</v>
+        <v>19.951720000000002</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1770.630000</v>
+        <v>1770.63</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1092.250000</v>
+        <v>-1092.25</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>71839.234735</v>
+        <v>71839.234735000005</v>
       </c>
       <c r="CD19" s="1">
-        <v>19.955343</v>
+        <v>19.955342999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>2188.260000</v>
+        <v>2188.2600000000002</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1740.430000</v>
+        <v>-1740.43</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>71666.694419</v>
+        <v>71666.694419000007</v>
       </c>
       <c r="B20" s="1">
         <v>19.907415</v>
       </c>
       <c r="C20" s="1">
-        <v>1149.310000</v>
+        <v>1149.31</v>
       </c>
       <c r="D20" s="1">
-        <v>-251.639000</v>
+        <v>-251.63900000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>71677.161492</v>
+        <v>71677.161491999999</v>
       </c>
       <c r="G20" s="1">
-        <v>19.910323</v>
+        <v>19.910323000000002</v>
       </c>
       <c r="H20" s="1">
-        <v>1169.360000</v>
+        <v>1169.3599999999999</v>
       </c>
       <c r="I20" s="1">
-        <v>-211.657000</v>
+        <v>-211.65700000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>71687.726312</v>
+        <v>71687.726311999999</v>
       </c>
       <c r="L20" s="1">
-        <v>19.913257</v>
+        <v>19.913257000000002</v>
       </c>
       <c r="M20" s="1">
-        <v>1197.300000</v>
+        <v>1197.3</v>
       </c>
       <c r="N20" s="1">
-        <v>-148.766000</v>
+        <v>-148.76599999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>71697.653738</v>
+        <v>71697.653737999994</v>
       </c>
       <c r="Q20" s="1">
-        <v>19.916015</v>
+        <v>19.916015000000002</v>
       </c>
       <c r="R20" s="1">
-        <v>1205.220000</v>
+        <v>1205.22</v>
       </c>
       <c r="S20" s="1">
-        <v>-127.458000</v>
+        <v>-127.458</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>71707.722029</v>
+        <v>71707.722028999997</v>
       </c>
       <c r="V20" s="1">
-        <v>19.918812</v>
+        <v>19.918811999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>1212.880000</v>
+        <v>1212.8800000000001</v>
       </c>
       <c r="X20" s="1">
-        <v>-107.208000</v>
+        <v>-107.208</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>71717.970830</v>
+        <v>71717.970830000006</v>
       </c>
       <c r="AA20" s="1">
-        <v>19.921659</v>
+        <v>19.921658999999998</v>
       </c>
       <c r="AB20" s="1">
-        <v>1220.770000</v>
+        <v>1220.77</v>
       </c>
       <c r="AC20" s="1">
-        <v>-90.914100</v>
+        <v>-90.914100000000005</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>71728.490976</v>
+        <v>71728.490976000001</v>
       </c>
       <c r="AF20" s="1">
         <v>19.924581</v>
       </c>
       <c r="AG20" s="1">
-        <v>1225.800000</v>
+        <v>1225.8</v>
       </c>
       <c r="AH20" s="1">
-        <v>-86.420600</v>
+        <v>-86.420599999999993</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>71739.034930</v>
+        <v>71739.034929999994</v>
       </c>
       <c r="AK20" s="1">
-        <v>19.927510</v>
+        <v>19.927510000000002</v>
       </c>
       <c r="AL20" s="1">
-        <v>1233.110000</v>
+        <v>1233.1099999999999</v>
       </c>
       <c r="AM20" s="1">
-        <v>-89.843500</v>
+        <v>-89.843500000000006</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>71749.944436</v>
+        <v>71749.944436000005</v>
       </c>
       <c r="AP20" s="1">
-        <v>19.930540</v>
+        <v>19.930540000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1241.210000</v>
+        <v>1241.21</v>
       </c>
       <c r="AR20" s="1">
-        <v>-101.706000</v>
+        <v>-101.706</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>71760.992326</v>
+        <v>71760.992326000007</v>
       </c>
       <c r="AU20" s="1">
-        <v>19.933609</v>
+        <v>19.933609000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>1251.260000</v>
+        <v>1251.26</v>
       </c>
       <c r="AW20" s="1">
-        <v>-120.998000</v>
+        <v>-120.998</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>71772.015415</v>
+        <v>71772.015415000002</v>
       </c>
       <c r="AZ20" s="1">
         <v>19.936671</v>
       </c>
       <c r="BA20" s="1">
-        <v>1259.810000</v>
+        <v>1259.81</v>
       </c>
       <c r="BB20" s="1">
-        <v>-138.475000</v>
+        <v>-138.47499999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>71783.003288</v>
+        <v>71783.003288000007</v>
       </c>
       <c r="BE20" s="1">
-        <v>19.939723</v>
+        <v>19.939723000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1300.260000</v>
+        <v>1300.26</v>
       </c>
       <c r="BG20" s="1">
-        <v>-220.157000</v>
+        <v>-220.15700000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>71793.675706</v>
+        <v>71793.675705999995</v>
       </c>
       <c r="BJ20" s="1">
         <v>19.942688</v>
       </c>
       <c r="BK20" s="1">
-        <v>1370.340000</v>
+        <v>1370.34</v>
       </c>
       <c r="BL20" s="1">
-        <v>-355.846000</v>
+        <v>-355.846</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>71804.477085</v>
+        <v>71804.477085000006</v>
       </c>
       <c r="BO20" s="1">
-        <v>19.945688</v>
+        <v>19.945688000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1485.460000</v>
+        <v>1485.46</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-576.113000</v>
+        <v>-576.11300000000006</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>71815.350382</v>
+        <v>71815.350382000004</v>
       </c>
       <c r="BT20" s="1">
         <v>19.948708</v>
       </c>
       <c r="BU20" s="1">
-        <v>1617.790000</v>
+        <v>1617.79</v>
       </c>
       <c r="BV20" s="1">
-        <v>-824.167000</v>
+        <v>-824.16700000000003</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>71826.617007</v>
+        <v>71826.617006999993</v>
       </c>
       <c r="BY20" s="1">
-        <v>19.951838</v>
+        <v>19.951837999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1770.750000</v>
+        <v>1770.75</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1092.320000</v>
+        <v>-1092.32</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>71839.752589</v>
+        <v>71839.752588999996</v>
       </c>
       <c r="CD20" s="1">
-        <v>19.955487</v>
+        <v>19.955487000000002</v>
       </c>
       <c r="CE20" s="1">
-        <v>2186.990000</v>
+        <v>2186.9899999999998</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1739.350000</v>
+        <v>-1739.35</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>71667.379409</v>
+        <v>71667.379409000001</v>
       </c>
       <c r="B21" s="1">
         <v>19.907605</v>
       </c>
       <c r="C21" s="1">
-        <v>1149.070000</v>
+        <v>1149.07</v>
       </c>
       <c r="D21" s="1">
-        <v>-251.491000</v>
+        <v>-251.49100000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>71677.852916</v>
+        <v>71677.852916000003</v>
       </c>
       <c r="G21" s="1">
         <v>19.910515</v>
       </c>
       <c r="H21" s="1">
-        <v>1169.410000</v>
+        <v>1169.4100000000001</v>
       </c>
       <c r="I21" s="1">
-        <v>-211.747000</v>
+        <v>-211.74700000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>71688.076950</v>
+        <v>71688.076950000002</v>
       </c>
       <c r="L21" s="1">
-        <v>19.913355</v>
+        <v>19.913354999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>1197.520000</v>
+        <v>1197.52</v>
       </c>
       <c r="N21" s="1">
-        <v>-148.674000</v>
+        <v>-148.67400000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>71698.001401</v>
+        <v>71698.001401000001</v>
       </c>
       <c r="Q21" s="1">
-        <v>19.916112</v>
+        <v>19.916111999999998</v>
       </c>
       <c r="R21" s="1">
-        <v>1205.250000</v>
+        <v>1205.25</v>
       </c>
       <c r="S21" s="1">
-        <v>-127.421000</v>
+        <v>-127.42100000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>71708.065228</v>
+        <v>71708.065228000007</v>
       </c>
       <c r="V21" s="1">
-        <v>19.918907</v>
+        <v>19.918907000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>1212.890000</v>
+        <v>1212.8900000000001</v>
       </c>
       <c r="X21" s="1">
-        <v>-107.286000</v>
+        <v>-107.286</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>71718.639965</v>
+        <v>71718.639964999995</v>
       </c>
       <c r="AA21" s="1">
         <v>19.921844</v>
       </c>
       <c r="AB21" s="1">
-        <v>1220.750000</v>
+        <v>1220.75</v>
       </c>
       <c r="AC21" s="1">
-        <v>-90.823200</v>
+        <v>-90.8232</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>71728.862976</v>
+        <v>71728.862976000004</v>
       </c>
       <c r="AF21" s="1">
-        <v>19.924684</v>
+        <v>19.924683999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>1225.710000</v>
+        <v>1225.71</v>
       </c>
       <c r="AH21" s="1">
-        <v>-86.385000</v>
+        <v>-86.385000000000005</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>71739.412883</v>
+        <v>71739.412882999997</v>
       </c>
       <c r="AK21" s="1">
-        <v>19.927615</v>
+        <v>19.927614999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>1233.080000</v>
+        <v>1233.08</v>
       </c>
       <c r="AM21" s="1">
-        <v>-89.865400</v>
+        <v>-89.865399999999994</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>71750.326355</v>
+        <v>71750.326354999997</v>
       </c>
       <c r="AP21" s="1">
-        <v>19.930646</v>
+        <v>19.930645999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1241.190000</v>
+        <v>1241.19</v>
       </c>
       <c r="AR21" s="1">
-        <v>-101.750000</v>
+        <v>-101.75</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>71761.358373</v>
+        <v>71761.358372999995</v>
       </c>
       <c r="AU21" s="1">
-        <v>19.933711</v>
+        <v>19.933710999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>1251.260000</v>
+        <v>1251.26</v>
       </c>
       <c r="AW21" s="1">
-        <v>-121.015000</v>
+        <v>-121.015</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>71772.376998</v>
+        <v>71772.376998000007</v>
       </c>
       <c r="AZ21" s="1">
         <v>19.936771</v>
       </c>
       <c r="BA21" s="1">
-        <v>1259.790000</v>
+        <v>1259.79</v>
       </c>
       <c r="BB21" s="1">
-        <v>-138.432000</v>
+        <v>-138.43199999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>71783.434345</v>
+        <v>71783.434345000001</v>
       </c>
       <c r="BE21" s="1">
         <v>19.939843</v>
       </c>
       <c r="BF21" s="1">
-        <v>1300.230000</v>
+        <v>1300.23</v>
       </c>
       <c r="BG21" s="1">
-        <v>-220.167000</v>
+        <v>-220.167</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>71793.991194</v>
+        <v>71793.991194000002</v>
       </c>
       <c r="BJ21" s="1">
-        <v>19.942775</v>
+        <v>19.942775000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1370.330000</v>
+        <v>1370.33</v>
       </c>
       <c r="BL21" s="1">
-        <v>-355.835000</v>
+        <v>-355.83499999999998</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>71804.865981</v>
+        <v>71804.865980999995</v>
       </c>
       <c r="BO21" s="1">
-        <v>19.945796</v>
+        <v>19.945796000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1485.460000</v>
+        <v>1485.46</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-576.079000</v>
+        <v>-576.07899999999995</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>71815.766029</v>
+        <v>71815.766029000006</v>
       </c>
       <c r="BT21" s="1">
-        <v>19.948824</v>
+        <v>19.948823999999998</v>
       </c>
       <c r="BU21" s="1">
-        <v>1617.830000</v>
+        <v>1617.83</v>
       </c>
       <c r="BV21" s="1">
-        <v>-824.188000</v>
+        <v>-824.18799999999999</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>71827.040127</v>
       </c>
       <c r="BY21" s="1">
-        <v>19.951956</v>
+        <v>19.951955999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1770.600000</v>
+        <v>1770.6</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1092.090000</v>
+        <v>-1092.0899999999999</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>71840.269389</v>
+        <v>71840.269388999994</v>
       </c>
       <c r="CD21" s="1">
-        <v>19.955630</v>
+        <v>19.955629999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>2187.890000</v>
+        <v>2187.89</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1739.040000</v>
+        <v>-1739.04</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>71667.721137</v>
       </c>
       <c r="B22" s="1">
-        <v>19.907700</v>
+        <v>19.907699999999998</v>
       </c>
       <c r="C22" s="1">
-        <v>1149.210000</v>
+        <v>1149.21</v>
       </c>
       <c r="D22" s="1">
-        <v>-251.467000</v>
+        <v>-251.46700000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>71678.206068</v>
       </c>
       <c r="G22" s="1">
-        <v>19.910613</v>
+        <v>19.910613000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>1169.320000</v>
+        <v>1169.32</v>
       </c>
       <c r="I22" s="1">
-        <v>-212.027000</v>
+        <v>-212.02699999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>71688.421671</v>
+        <v>71688.421671000004</v>
       </c>
       <c r="L22" s="1">
-        <v>19.913450</v>
+        <v>19.913450000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>1197.200000</v>
+        <v>1197.2</v>
       </c>
       <c r="N22" s="1">
-        <v>-148.752000</v>
+        <v>-148.75200000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>71698.664093</v>
+        <v>71698.664092999999</v>
       </c>
       <c r="Q22" s="1">
-        <v>19.916296</v>
+        <v>19.916295999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>1205.220000</v>
+        <v>1205.22</v>
       </c>
       <c r="S22" s="1">
-        <v>-127.484000</v>
+        <v>-127.48399999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>71708.734331</v>
@@ -5681,255 +6097,255 @@
         <v>19.919093</v>
       </c>
       <c r="W22" s="1">
-        <v>1212.870000</v>
+        <v>1212.8699999999999</v>
       </c>
       <c r="X22" s="1">
-        <v>-107.247000</v>
+        <v>-107.247</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>71719.018877</v>
+        <v>71719.018876999995</v>
       </c>
       <c r="AA22" s="1">
-        <v>19.921950</v>
+        <v>19.921949999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>1220.760000</v>
+        <v>1220.76</v>
       </c>
       <c r="AC22" s="1">
-        <v>-90.771400</v>
+        <v>-90.7714</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>71729.209184</v>
+        <v>71729.209184000007</v>
       </c>
       <c r="AF22" s="1">
-        <v>19.924780</v>
+        <v>19.924779999999998</v>
       </c>
       <c r="AG22" s="1">
-        <v>1225.760000</v>
+        <v>1225.76</v>
       </c>
       <c r="AH22" s="1">
-        <v>-86.390900</v>
+        <v>-86.390900000000002</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>71739.762595</v>
+        <v>71739.762594999993</v>
       </c>
       <c r="AK22" s="1">
         <v>19.927712</v>
       </c>
       <c r="AL22" s="1">
-        <v>1233.110000</v>
+        <v>1233.1099999999999</v>
       </c>
       <c r="AM22" s="1">
-        <v>-89.842800</v>
+        <v>-89.842799999999997</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>71750.690451</v>
+        <v>71750.690451000002</v>
       </c>
       <c r="AP22" s="1">
         <v>19.930747</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1241.190000</v>
+        <v>1241.19</v>
       </c>
       <c r="AR22" s="1">
-        <v>-101.739000</v>
+        <v>-101.739</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>71761.788406</v>
+        <v>71761.788406000007</v>
       </c>
       <c r="AU22" s="1">
-        <v>19.933830</v>
+        <v>19.93383</v>
       </c>
       <c r="AV22" s="1">
-        <v>1251.300000</v>
+        <v>1251.3</v>
       </c>
       <c r="AW22" s="1">
-        <v>-121.029000</v>
+        <v>-121.029</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>71772.812488</v>
+        <v>71772.812487999996</v>
       </c>
       <c r="AZ22" s="1">
         <v>19.936892</v>
       </c>
       <c r="BA22" s="1">
-        <v>1259.780000</v>
+        <v>1259.78</v>
       </c>
       <c r="BB22" s="1">
-        <v>-138.453000</v>
+        <v>-138.453</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>71783.726953</v>
+        <v>71783.726953000005</v>
       </c>
       <c r="BE22" s="1">
-        <v>19.939924</v>
+        <v>19.939924000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1300.230000</v>
+        <v>1300.23</v>
       </c>
       <c r="BG22" s="1">
-        <v>-220.180000</v>
+        <v>-220.18</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>71794.374074</v>
+        <v>71794.374074000007</v>
       </c>
       <c r="BJ22" s="1">
-        <v>19.942882</v>
+        <v>19.942882000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1370.330000</v>
+        <v>1370.33</v>
       </c>
       <c r="BL22" s="1">
-        <v>-355.860000</v>
+        <v>-355.86</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>71805.285073</v>
+        <v>71805.285073000006</v>
       </c>
       <c r="BO22" s="1">
-        <v>19.945913</v>
+        <v>19.945913000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1485.460000</v>
+        <v>1485.46</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-576.063000</v>
+        <v>-576.06299999999999</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>71816.182173</v>
+        <v>71816.182172999994</v>
       </c>
       <c r="BT22" s="1">
-        <v>19.948939</v>
+        <v>19.948938999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>1617.980000</v>
+        <v>1617.98</v>
       </c>
       <c r="BV22" s="1">
-        <v>-824.295000</v>
+        <v>-824.29499999999996</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>71827.905128</v>
+        <v>71827.905127999999</v>
       </c>
       <c r="BY22" s="1">
-        <v>19.952196</v>
+        <v>19.952196000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1770.720000</v>
+        <v>1770.72</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1092.350000</v>
+        <v>-1092.3499999999999</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>71840.837308</v>
+        <v>71840.837308000002</v>
       </c>
       <c r="CD22" s="1">
-        <v>19.955788</v>
+        <v>19.955787999999998</v>
       </c>
       <c r="CE22" s="1">
-        <v>2188.110000</v>
+        <v>2188.11</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1740.500000</v>
+        <v>-1740.5</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>71668.064370</v>
+        <v>71668.064369999993</v>
       </c>
       <c r="B23" s="1">
-        <v>19.907796</v>
+        <v>19.907796000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>1149.190000</v>
+        <v>1149.19</v>
       </c>
       <c r="D23" s="1">
-        <v>-251.574000</v>
+        <v>-251.57400000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>71678.867757</v>
       </c>
       <c r="G23" s="1">
-        <v>19.910797</v>
+        <v>19.910796999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>1170.350000</v>
+        <v>1170.3499999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>-211.270000</v>
+        <v>-211.27</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>71689.085348</v>
+        <v>71689.085347999993</v>
       </c>
       <c r="L23" s="1">
-        <v>19.913635</v>
+        <v>19.913634999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>1197.340000</v>
+        <v>1197.3399999999999</v>
       </c>
       <c r="N23" s="1">
-        <v>-148.521000</v>
+        <v>-148.52099999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>71698.922969</v>
+        <v>71698.922969000007</v>
       </c>
       <c r="Q23" s="1">
-        <v>19.916367</v>
+        <v>19.916367000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>1205.200000</v>
+        <v>1205.2</v>
       </c>
       <c r="S23" s="1">
-        <v>-127.497000</v>
+        <v>-127.497</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>71709.094438</v>
@@ -5938,966 +6354,967 @@
         <v>19.919193</v>
       </c>
       <c r="W23" s="1">
-        <v>1212.850000</v>
+        <v>1212.8499999999999</v>
       </c>
       <c r="X23" s="1">
-        <v>-107.174000</v>
+        <v>-107.17400000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>71719.366573</v>
+        <v>71719.366573000007</v>
       </c>
       <c r="AA23" s="1">
-        <v>19.922046</v>
+        <v>19.922046000000002</v>
       </c>
       <c r="AB23" s="1">
-        <v>1220.960000</v>
+        <v>1220.96</v>
       </c>
       <c r="AC23" s="1">
-        <v>-90.823200</v>
+        <v>-90.8232</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>71729.552415</v>
+        <v>71729.552414999998</v>
       </c>
       <c r="AF23" s="1">
-        <v>19.924876</v>
+        <v>19.924876000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>1225.760000</v>
+        <v>1225.76</v>
       </c>
       <c r="AH23" s="1">
-        <v>-86.597400</v>
+        <v>-86.597399999999993</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>71740.109265</v>
+        <v>71740.109265000006</v>
       </c>
       <c r="AK23" s="1">
-        <v>19.927808</v>
+        <v>19.927807999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>1233.090000</v>
+        <v>1233.0899999999999</v>
       </c>
       <c r="AM23" s="1">
-        <v>-89.829100</v>
+        <v>-89.829099999999997</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>71751.109539</v>
+        <v>71751.109538999997</v>
       </c>
       <c r="AP23" s="1">
         <v>19.930864</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1241.200000</v>
+        <v>1241.2</v>
       </c>
       <c r="AR23" s="1">
-        <v>-101.719000</v>
+        <v>-101.71899999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>71762.085510</v>
+        <v>71762.085510000004</v>
       </c>
       <c r="AU23" s="1">
         <v>19.933913</v>
       </c>
       <c r="AV23" s="1">
-        <v>1251.270000</v>
+        <v>1251.27</v>
       </c>
       <c r="AW23" s="1">
-        <v>-121.015000</v>
+        <v>-121.015</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>71773.093222</v>
+        <v>71773.093221999996</v>
       </c>
       <c r="AZ23" s="1">
-        <v>19.936970</v>
+        <v>19.936969999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1259.820000</v>
+        <v>1259.82</v>
       </c>
       <c r="BB23" s="1">
-        <v>-138.441000</v>
+        <v>-138.441</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>71784.085597</v>
+        <v>71784.085596999998</v>
       </c>
       <c r="BE23" s="1">
-        <v>19.940024</v>
+        <v>19.940024000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1300.230000</v>
+        <v>1300.23</v>
       </c>
       <c r="BG23" s="1">
-        <v>-220.176000</v>
+        <v>-220.17599999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>71794.758008</v>
+        <v>71794.758008000004</v>
       </c>
       <c r="BJ23" s="1">
         <v>19.942988</v>
       </c>
       <c r="BK23" s="1">
-        <v>1370.320000</v>
+        <v>1370.32</v>
       </c>
       <c r="BL23" s="1">
-        <v>-355.836000</v>
+        <v>-355.83600000000001</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>71805.679388</v>
+        <v>71805.679388000004</v>
       </c>
       <c r="BO23" s="1">
-        <v>19.946022</v>
+        <v>19.946021999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1485.470000</v>
+        <v>1485.47</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-576.031000</v>
+        <v>-576.03099999999995</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>71817.007517</v>
+        <v>71817.007517000005</v>
       </c>
       <c r="BT23" s="1">
-        <v>19.949169</v>
+        <v>19.949169000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1618.180000</v>
+        <v>1618.18</v>
       </c>
       <c r="BV23" s="1">
-        <v>-824.255000</v>
+        <v>-824.255</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>71828.351020</v>
+        <v>71828.351020000002</v>
       </c>
       <c r="BY23" s="1">
-        <v>19.952320</v>
+        <v>19.95232</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1770.710000</v>
+        <v>1770.71</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1092.200000</v>
+        <v>-1092.2</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>71841.351674</v>
+        <v>71841.351674000005</v>
       </c>
       <c r="CD23" s="1">
         <v>19.955931</v>
       </c>
       <c r="CE23" s="1">
-        <v>2187.270000</v>
+        <v>2187.27</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1739.280000</v>
+        <v>-1739.28</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>71668.725568</v>
+        <v>71668.725567999994</v>
       </c>
       <c r="B24" s="1">
-        <v>19.907979</v>
+        <v>19.907979000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>1149.320000</v>
+        <v>1149.32</v>
       </c>
       <c r="D24" s="1">
-        <v>-251.684000</v>
+        <v>-251.684</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>71679.238281</v>
+        <v>71679.238280999998</v>
       </c>
       <c r="G24" s="1">
-        <v>19.910900</v>
+        <v>19.910900000000002</v>
       </c>
       <c r="H24" s="1">
-        <v>1170.550000</v>
+        <v>1170.55</v>
       </c>
       <c r="I24" s="1">
-        <v>-212.253000</v>
+        <v>-212.25299999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>71689.459796</v>
+        <v>71689.459795999996</v>
       </c>
       <c r="L24" s="1">
         <v>19.913739</v>
       </c>
       <c r="M24" s="1">
-        <v>1197.330000</v>
+        <v>1197.33</v>
       </c>
       <c r="N24" s="1">
-        <v>-148.937000</v>
+        <v>-148.93700000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>71699.281111</v>
+        <v>71699.281111000004</v>
       </c>
       <c r="Q24" s="1">
-        <v>19.916467</v>
+        <v>19.916467000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>1205.190000</v>
+        <v>1205.19</v>
       </c>
       <c r="S24" s="1">
-        <v>-127.507000</v>
+        <v>-127.50700000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>71709.440217</v>
+        <v>71709.440216999996</v>
       </c>
       <c r="V24" s="1">
-        <v>19.919289</v>
+        <v>19.919288999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>1212.680000</v>
+        <v>1212.68</v>
       </c>
       <c r="X24" s="1">
-        <v>-107.397000</v>
+        <v>-107.39700000000001</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>71719.712780</v>
+        <v>71719.712780000002</v>
       </c>
       <c r="AA24" s="1">
-        <v>19.922142</v>
+        <v>19.922142000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>1220.800000</v>
+        <v>1220.8</v>
       </c>
       <c r="AC24" s="1">
-        <v>-90.823600</v>
+        <v>-90.823599999999999</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>71729.977487</v>
+        <v>71729.977486999996</v>
       </c>
       <c r="AF24" s="1">
-        <v>19.924994</v>
+        <v>19.924994000000002</v>
       </c>
       <c r="AG24" s="1">
-        <v>1225.780000</v>
+        <v>1225.78</v>
       </c>
       <c r="AH24" s="1">
-        <v>-86.302700</v>
+        <v>-86.302700000000002</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>71740.547233</v>
+        <v>71740.547233000005</v>
       </c>
       <c r="AK24" s="1">
-        <v>19.927930</v>
+        <v>19.92793</v>
       </c>
       <c r="AL24" s="1">
-        <v>1233.110000</v>
+        <v>1233.1099999999999</v>
       </c>
       <c r="AM24" s="1">
-        <v>-89.850200</v>
+        <v>-89.850200000000001</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>71751.410610</v>
+        <v>71751.410610000006</v>
       </c>
       <c r="AP24" s="1">
         <v>19.930947</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1241.190000</v>
+        <v>1241.19</v>
       </c>
       <c r="AR24" s="1">
-        <v>-101.732000</v>
+        <v>-101.732</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>71762.453087</v>
+        <v>71762.453087000002</v>
       </c>
       <c r="AU24" s="1">
-        <v>19.934015</v>
+        <v>19.934014999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>1251.260000</v>
+        <v>1251.26</v>
       </c>
       <c r="AW24" s="1">
-        <v>-120.994000</v>
+        <v>-120.994</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>71773.451830</v>
+        <v>71773.451830000005</v>
       </c>
       <c r="AZ24" s="1">
-        <v>19.937070</v>
+        <v>19.937069999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1259.800000</v>
+        <v>1259.8</v>
       </c>
       <c r="BB24" s="1">
-        <v>-138.450000</v>
+        <v>-138.44999999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>71784.446657</v>
+        <v>71784.446656999993</v>
       </c>
       <c r="BE24" s="1">
-        <v>19.940124</v>
+        <v>19.940124000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1300.230000</v>
+        <v>1300.23</v>
       </c>
       <c r="BG24" s="1">
-        <v>-220.147000</v>
+        <v>-220.14699999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>71795.515368</v>
+        <v>71795.515367999993</v>
       </c>
       <c r="BJ24" s="1">
         <v>19.943199</v>
       </c>
       <c r="BK24" s="1">
-        <v>1370.350000</v>
+        <v>1370.35</v>
       </c>
       <c r="BL24" s="1">
-        <v>-355.861000</v>
+        <v>-355.86099999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>71806.109418</v>
+        <v>71806.109418000007</v>
       </c>
       <c r="BO24" s="1">
-        <v>19.946142</v>
+        <v>19.946141999999998</v>
       </c>
       <c r="BP24" s="1">
-        <v>1485.460000</v>
+        <v>1485.46</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-576.132000</v>
+        <v>-576.13199999999995</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>71817.419693</v>
+        <v>71817.419693000003</v>
       </c>
       <c r="BT24" s="1">
-        <v>19.949283</v>
+        <v>19.949283000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1618.280000</v>
+        <v>1618.28</v>
       </c>
       <c r="BV24" s="1">
-        <v>-824.256000</v>
+        <v>-824.25599999999997</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>71828.774604</v>
+        <v>71828.774604000006</v>
       </c>
       <c r="BY24" s="1">
         <v>19.952437</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1770.650000</v>
+        <v>1770.65</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1092.240000</v>
+        <v>-1092.24</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>71841.871963</v>
+        <v>71841.871962999998</v>
       </c>
       <c r="CD24" s="1">
-        <v>19.956076</v>
+        <v>19.956075999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>2187.990000</v>
+        <v>2187.9899999999998</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1739.200000</v>
+        <v>-1739.2</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>71669.085631</v>
+        <v>71669.085630999994</v>
       </c>
       <c r="B25" s="1">
-        <v>19.908079</v>
+        <v>19.908079000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>1149.090000</v>
+        <v>1149.0899999999999</v>
       </c>
       <c r="D25" s="1">
-        <v>-251.690000</v>
+        <v>-251.69</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>71679.584945</v>
+        <v>71679.584944999995</v>
       </c>
       <c r="G25" s="1">
-        <v>19.910996</v>
+        <v>19.910996000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>1170.200000</v>
+        <v>1170.2</v>
       </c>
       <c r="I25" s="1">
-        <v>-212.206000</v>
+        <v>-212.20599999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>71689.802533</v>
+        <v>71689.802532999995</v>
       </c>
       <c r="L25" s="1">
-        <v>19.913834</v>
+        <v>19.913834000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>1197.330000</v>
+        <v>1197.33</v>
       </c>
       <c r="N25" s="1">
-        <v>-148.636000</v>
+        <v>-148.636</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>71699.629271</v>
+        <v>71699.629270999998</v>
       </c>
       <c r="Q25" s="1">
-        <v>19.916564</v>
+        <v>19.916564000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>1205.240000</v>
+        <v>1205.24</v>
       </c>
       <c r="S25" s="1">
-        <v>-127.441000</v>
+        <v>-127.441</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>71709.783865</v>
+        <v>71709.783865000005</v>
       </c>
       <c r="V25" s="1">
-        <v>19.919384</v>
+        <v>19.919384000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>1212.850000</v>
+        <v>1212.8499999999999</v>
       </c>
       <c r="X25" s="1">
-        <v>-107.076000</v>
+        <v>-107.07599999999999</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>71720.144301</v>
+        <v>71720.144300999993</v>
       </c>
       <c r="AA25" s="1">
         <v>19.922262</v>
       </c>
       <c r="AB25" s="1">
-        <v>1220.910000</v>
+        <v>1220.9100000000001</v>
       </c>
       <c r="AC25" s="1">
-        <v>-90.770900</v>
+        <v>-90.770899999999997</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>71730.247312</v>
+        <v>71730.247312000007</v>
       </c>
       <c r="AF25" s="1">
-        <v>19.925069</v>
+        <v>19.925069000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>1225.800000</v>
+        <v>1225.8</v>
       </c>
       <c r="AH25" s="1">
-        <v>-86.324700</v>
+        <v>-86.324700000000007</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>71740.820641</v>
+        <v>71740.820640999998</v>
       </c>
       <c r="AK25" s="1">
         <v>19.928006</v>
       </c>
       <c r="AL25" s="1">
-        <v>1233.070000</v>
+        <v>1233.07</v>
       </c>
       <c r="AM25" s="1">
-        <v>-89.811200</v>
+        <v>-89.811199999999999</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>71751.769624</v>
+        <v>71751.769623999993</v>
       </c>
       <c r="AP25" s="1">
         <v>19.931047</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1241.220000</v>
+        <v>1241.22</v>
       </c>
       <c r="AR25" s="1">
-        <v>-101.686000</v>
+        <v>-101.68600000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>71762.815619</v>
+        <v>71762.815619000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>19.934115</v>
+        <v>19.934114999999998</v>
       </c>
       <c r="AV25" s="1">
-        <v>1251.260000</v>
+        <v>1251.26</v>
       </c>
       <c r="AW25" s="1">
-        <v>-121.000000</v>
+        <v>-121</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>71773.814404</v>
+        <v>71773.814404000004</v>
       </c>
       <c r="AZ25" s="1">
-        <v>19.937171</v>
+        <v>19.937170999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1259.770000</v>
+        <v>1259.77</v>
       </c>
       <c r="BB25" s="1">
-        <v>-138.470000</v>
+        <v>-138.47</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>71785.169815</v>
+        <v>71785.169815000001</v>
       </c>
       <c r="BE25" s="1">
-        <v>19.940325</v>
+        <v>19.940325000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1300.220000</v>
+        <v>1300.22</v>
       </c>
       <c r="BG25" s="1">
-        <v>-220.142000</v>
+        <v>-220.142</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>71795.914647</v>
+        <v>71795.914646999998</v>
       </c>
       <c r="BJ25" s="1">
-        <v>19.943310</v>
+        <v>19.94331</v>
       </c>
       <c r="BK25" s="1">
-        <v>1370.330000</v>
+        <v>1370.33</v>
       </c>
       <c r="BL25" s="1">
-        <v>-355.845000</v>
+        <v>-355.84500000000003</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>71806.501791</v>
+        <v>71806.501791000002</v>
       </c>
       <c r="BO25" s="1">
-        <v>19.946250</v>
+        <v>19.946249999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1485.480000</v>
+        <v>1485.48</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-576.046000</v>
+        <v>-576.04600000000005</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>71817.864603</v>
+        <v>71817.864602999995</v>
       </c>
       <c r="BT25" s="1">
-        <v>19.949407</v>
+        <v>19.949407000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1618.400000</v>
+        <v>1618.4</v>
       </c>
       <c r="BV25" s="1">
-        <v>-824.239000</v>
+        <v>-824.23900000000003</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>71829.507724</v>
+        <v>71829.507723999996</v>
       </c>
       <c r="BY25" s="1">
         <v>19.952641</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1770.720000</v>
+        <v>1770.72</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1092.300000</v>
+        <v>-1092.3</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>71842.431451</v>
+        <v>71842.431450999997</v>
       </c>
       <c r="CD25" s="1">
-        <v>19.956231</v>
+        <v>19.956230999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>2188.360000</v>
+        <v>2188.36</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1740.500000</v>
+        <v>-1740.5</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>71669.428895</v>
+        <v>71669.428895000005</v>
       </c>
       <c r="B26" s="1">
         <v>19.908175</v>
       </c>
       <c r="C26" s="1">
-        <v>1149.080000</v>
+        <v>1149.08</v>
       </c>
       <c r="D26" s="1">
-        <v>-251.846000</v>
+        <v>-251.846</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>71679.930656</v>
+        <v>71679.930655999997</v>
       </c>
       <c r="G26" s="1">
         <v>19.911092</v>
       </c>
       <c r="H26" s="1">
-        <v>1170.120000</v>
+        <v>1170.1199999999999</v>
       </c>
       <c r="I26" s="1">
-        <v>-212.108000</v>
+        <v>-212.108</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>71690.149235</v>
+        <v>71690.149235000004</v>
       </c>
       <c r="L26" s="1">
-        <v>19.913930</v>
+        <v>19.913930000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>1197.310000</v>
+        <v>1197.31</v>
       </c>
       <c r="N26" s="1">
-        <v>-148.652000</v>
+        <v>-148.65199999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>71700.055334</v>
+        <v>71700.055334000004</v>
       </c>
       <c r="Q26" s="1">
-        <v>19.916682</v>
+        <v>19.916682000000002</v>
       </c>
       <c r="R26" s="1">
-        <v>1205.260000</v>
+        <v>1205.26</v>
       </c>
       <c r="S26" s="1">
-        <v>-127.399000</v>
+        <v>-127.399</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>71710.219850</v>
+        <v>71710.219849999994</v>
       </c>
       <c r="V26" s="1">
-        <v>19.919506</v>
+        <v>19.919505999999998</v>
       </c>
       <c r="W26" s="1">
-        <v>1212.910000</v>
+        <v>1212.9100000000001</v>
       </c>
       <c r="X26" s="1">
-        <v>-107.326000</v>
+        <v>-107.32599999999999</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>71720.423547</v>
+        <v>71720.423546999999</v>
       </c>
       <c r="AA26" s="1">
-        <v>19.922340</v>
+        <v>19.922339999999998</v>
       </c>
       <c r="AB26" s="1">
-        <v>1220.800000</v>
+        <v>1220.8</v>
       </c>
       <c r="AC26" s="1">
-        <v>-90.636600</v>
+        <v>-90.636600000000001</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>71730.585123</v>
+        <v>71730.585122999997</v>
       </c>
       <c r="AF26" s="1">
-        <v>19.925163</v>
+        <v>19.925163000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>1225.860000</v>
+        <v>1225.8599999999999</v>
       </c>
       <c r="AH26" s="1">
-        <v>-86.504500</v>
+        <v>-86.504499999999993</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>71741.171200</v>
+        <v>71741.171199999997</v>
       </c>
       <c r="AK26" s="1">
         <v>19.928103</v>
       </c>
       <c r="AL26" s="1">
-        <v>1233.090000</v>
+        <v>1233.0899999999999</v>
       </c>
       <c r="AM26" s="1">
-        <v>-89.835000</v>
+        <v>-89.834999999999994</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>71752.131298</v>
+        <v>71752.131297999993</v>
       </c>
       <c r="AP26" s="1">
         <v>19.931148</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1241.210000</v>
+        <v>1241.21</v>
       </c>
       <c r="AR26" s="1">
-        <v>-101.729000</v>
+        <v>-101.729</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>71763.544275</v>
+        <v>71763.544274999993</v>
       </c>
       <c r="AU26" s="1">
-        <v>19.934318</v>
+        <v>19.934318000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>1251.250000</v>
+        <v>1251.25</v>
       </c>
       <c r="AW26" s="1">
-        <v>-121.008000</v>
+        <v>-121.008</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>71774.528149</v>
+        <v>71774.528149000005</v>
       </c>
       <c r="AZ26" s="1">
         <v>19.937369</v>
       </c>
       <c r="BA26" s="1">
-        <v>1259.780000</v>
+        <v>1259.78</v>
       </c>
       <c r="BB26" s="1">
-        <v>-138.447000</v>
+        <v>-138.447</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>71785.560662</v>
+        <v>71785.560662000004</v>
       </c>
       <c r="BE26" s="1">
         <v>19.940434</v>
       </c>
       <c r="BF26" s="1">
-        <v>1300.230000</v>
+        <v>1300.23</v>
       </c>
       <c r="BG26" s="1">
-        <v>-220.163000</v>
+        <v>-220.16300000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>71796.292103</v>
       </c>
       <c r="BJ26" s="1">
-        <v>19.943414</v>
+        <v>19.943414000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1370.360000</v>
+        <v>1370.36</v>
       </c>
       <c r="BL26" s="1">
-        <v>-355.837000</v>
+        <v>-355.83699999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>71806.921370</v>
+        <v>71806.921369999996</v>
       </c>
       <c r="BO26" s="1">
-        <v>19.946367</v>
+        <v>19.946366999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1485.500000</v>
+        <v>1485.5</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-576.039000</v>
+        <v>-576.03899999999999</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>71818.601194</v>
+        <v>71818.601194000003</v>
       </c>
       <c r="BT26" s="1">
-        <v>19.949611</v>
+        <v>19.949611000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1618.370000</v>
+        <v>1618.37</v>
       </c>
       <c r="BV26" s="1">
-        <v>-824.146000</v>
+        <v>-824.14599999999996</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>71829.622800</v>
+        <v>71829.622799999997</v>
       </c>
       <c r="BY26" s="1">
-        <v>19.952673</v>
+        <v>19.952673000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1770.820000</v>
+        <v>1770.82</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1092.210000</v>
+        <v>-1092.21</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>71842.950297</v>
+        <v>71842.950297000003</v>
       </c>
       <c r="CD26" s="1">
-        <v>19.956375</v>
+        <v>19.956375000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>2187.290000</v>
+        <v>2187.29</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1739.060000</v>
+        <v>-1739.06</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>